--- a/data/final_scraped_1200/c$scrape_data3.xlsx
+++ b/data/final_scraped_1200/c$scrape_data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bowiechuang/Documents/GitHub/Skin_Care_Recommendation/data/final_scraped_1200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F11E42-7DE6-714F-AC07-356816341D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206EEB58-F2E5-2147-BF57-89024E283966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4630" uniqueCount="2209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="2209">
   <si>
     <t>Brand Name</t>
   </si>
@@ -6686,6 +6686,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6745,13 +6748,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7057,8 +7063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H333" sqref="H333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15358,14 +15364,14 @@
       <c r="E203" t="s">
         <v>1036</v>
       </c>
-      <c r="F203" t="s">
-        <v>19</v>
+      <c r="F203">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G203" t="s">
         <v>94</v>
       </c>
-      <c r="H203" t="s">
-        <v>19</v>
+      <c r="H203">
+        <v>218</v>
       </c>
       <c r="I203" t="s">
         <v>1175</v>
@@ -15399,14 +15405,14 @@
       <c r="E204" t="s">
         <v>19</v>
       </c>
-      <c r="F204" t="s">
-        <v>19</v>
+      <c r="F204">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G204" t="s">
         <v>946</v>
       </c>
-      <c r="H204" t="s">
-        <v>19</v>
+      <c r="H204">
+        <v>271</v>
       </c>
       <c r="I204" t="s">
         <v>1179</v>
@@ -15440,14 +15446,14 @@
       <c r="E205" t="s">
         <v>108</v>
       </c>
-      <c r="F205" t="s">
-        <v>19</v>
+      <c r="F205">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G205" t="s">
         <v>946</v>
       </c>
-      <c r="H205" t="s">
-        <v>19</v>
+      <c r="H205">
+        <v>503</v>
       </c>
       <c r="I205" t="s">
         <v>1184</v>
@@ -15481,14 +15487,14 @@
       <c r="E206" t="s">
         <v>149</v>
       </c>
-      <c r="F206" t="s">
-        <v>19</v>
+      <c r="F206">
+        <v>4.7</v>
       </c>
       <c r="G206" t="s">
         <v>130</v>
       </c>
-      <c r="H206" t="s">
-        <v>19</v>
+      <c r="H206">
+        <v>83</v>
       </c>
       <c r="I206" t="s">
         <v>1188</v>
@@ -15522,14 +15528,14 @@
       <c r="E207" t="s">
         <v>618</v>
       </c>
-      <c r="F207" t="s">
-        <v>19</v>
+      <c r="F207">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G207" t="s">
         <v>1192</v>
       </c>
-      <c r="H207" t="s">
-        <v>19</v>
+      <c r="H207">
+        <v>11</v>
       </c>
       <c r="I207" t="s">
         <v>1193</v>
@@ -15563,14 +15569,14 @@
       <c r="E208" t="s">
         <v>108</v>
       </c>
-      <c r="F208" t="s">
-        <v>19</v>
+      <c r="F208">
+        <v>4.7</v>
       </c>
       <c r="G208" t="s">
         <v>745</v>
       </c>
-      <c r="H208" t="s">
-        <v>19</v>
+      <c r="H208">
+        <v>683</v>
       </c>
       <c r="I208" t="s">
         <v>1199</v>
@@ -15604,14 +15610,14 @@
       <c r="E209" t="s">
         <v>1203</v>
       </c>
-      <c r="F209" t="s">
-        <v>19</v>
+      <c r="F209">
+        <v>4.5</v>
       </c>
       <c r="G209" t="s">
         <v>1204</v>
       </c>
-      <c r="H209" t="s">
-        <v>19</v>
+      <c r="H209">
+        <v>53</v>
       </c>
       <c r="I209" t="s">
         <v>1205</v>
@@ -15645,14 +15651,14 @@
       <c r="E210" t="s">
         <v>523</v>
       </c>
-      <c r="F210" t="s">
-        <v>19</v>
+      <c r="F210">
+        <v>4.5</v>
       </c>
       <c r="G210" t="s">
         <v>725</v>
       </c>
-      <c r="H210" t="s">
-        <v>19</v>
+      <c r="H210">
+        <v>593</v>
       </c>
       <c r="I210" t="s">
         <v>1210</v>
@@ -15686,14 +15692,14 @@
       <c r="E211" t="s">
         <v>394</v>
       </c>
-      <c r="F211" t="s">
-        <v>19</v>
+      <c r="F211">
+        <v>4.5</v>
       </c>
       <c r="G211" t="s">
         <v>73</v>
       </c>
-      <c r="H211" t="s">
-        <v>19</v>
+      <c r="H211">
+        <v>591</v>
       </c>
       <c r="I211" t="s">
         <v>1214</v>
@@ -15727,14 +15733,14 @@
       <c r="E212" t="s">
         <v>1218</v>
       </c>
-      <c r="F212" t="s">
-        <v>19</v>
+      <c r="F212">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G212" t="s">
         <v>781</v>
       </c>
-      <c r="H212" t="s">
-        <v>19</v>
+      <c r="H212">
+        <v>91</v>
       </c>
       <c r="I212" t="s">
         <v>1219</v>
@@ -15768,14 +15774,14 @@
       <c r="E213" t="s">
         <v>1224</v>
       </c>
-      <c r="F213" t="s">
-        <v>19</v>
+      <c r="F213">
+        <v>4.3</v>
       </c>
       <c r="G213" t="s">
         <v>1225</v>
       </c>
-      <c r="H213" t="s">
-        <v>19</v>
+      <c r="H213">
+        <v>1991</v>
       </c>
       <c r="I213" t="s">
         <v>1226</v>
@@ -15809,14 +15815,14 @@
       <c r="E214" t="s">
         <v>1230</v>
       </c>
-      <c r="F214" t="s">
-        <v>19</v>
+      <c r="F214">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G214" t="s">
         <v>1231</v>
       </c>
-      <c r="H214" t="s">
-        <v>19</v>
+      <c r="H214">
+        <v>133</v>
       </c>
       <c r="I214" t="s">
         <v>1232</v>
@@ -15850,14 +15856,14 @@
       <c r="E215" t="s">
         <v>181</v>
       </c>
-      <c r="F215" t="s">
-        <v>19</v>
+      <c r="F215">
+        <v>4.8</v>
       </c>
       <c r="G215" t="s">
         <v>1236</v>
       </c>
-      <c r="H215" t="s">
-        <v>19</v>
+      <c r="H215">
+        <v>467</v>
       </c>
       <c r="I215" t="s">
         <v>1237</v>
@@ -15891,14 +15897,14 @@
       <c r="E216" t="s">
         <v>1242</v>
       </c>
-      <c r="F216" t="s">
-        <v>19</v>
+      <c r="F216">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G216" t="s">
         <v>94</v>
       </c>
-      <c r="H216" t="s">
-        <v>19</v>
+      <c r="H216">
+        <v>369</v>
       </c>
       <c r="I216" t="s">
         <v>1243</v>
@@ -15932,14 +15938,14 @@
       <c r="E217" t="s">
         <v>1248</v>
       </c>
-      <c r="F217" t="s">
-        <v>19</v>
+      <c r="F217">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G217" t="s">
         <v>518</v>
       </c>
-      <c r="H217" t="s">
-        <v>19</v>
+      <c r="H217">
+        <v>352</v>
       </c>
       <c r="I217" t="s">
         <v>1249</v>
@@ -15973,14 +15979,14 @@
       <c r="E218" t="s">
         <v>48</v>
       </c>
-      <c r="F218" t="s">
-        <v>19</v>
+      <c r="F218">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G218" t="s">
         <v>94</v>
       </c>
-      <c r="H218" t="s">
-        <v>19</v>
+      <c r="H218">
+        <v>332</v>
       </c>
       <c r="I218" t="s">
         <v>1253</v>
@@ -16014,14 +16020,14 @@
       <c r="E219" t="s">
         <v>851</v>
       </c>
-      <c r="F219" t="s">
-        <v>19</v>
+      <c r="F219">
+        <v>4.2</v>
       </c>
       <c r="G219" t="s">
         <v>1257</v>
       </c>
-      <c r="H219" t="s">
-        <v>19</v>
+      <c r="H219">
+        <v>552</v>
       </c>
       <c r="I219" t="s">
         <v>1258</v>
@@ -16055,14 +16061,14 @@
       <c r="E220" t="s">
         <v>588</v>
       </c>
-      <c r="F220" t="s">
-        <v>19</v>
+      <c r="F220">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G220" t="s">
         <v>130</v>
       </c>
-      <c r="H220" t="s">
-        <v>19</v>
+      <c r="H220">
+        <v>200</v>
       </c>
       <c r="I220" t="s">
         <v>1262</v>
@@ -16096,14 +16102,14 @@
       <c r="E221" t="s">
         <v>374</v>
       </c>
-      <c r="F221" t="s">
-        <v>19</v>
+      <c r="F221">
+        <v>2.6</v>
       </c>
       <c r="G221" t="s">
         <v>1266</v>
       </c>
-      <c r="H221" t="s">
-        <v>19</v>
+      <c r="H221">
+        <v>10</v>
       </c>
       <c r="I221" t="s">
         <v>1253</v>
@@ -16137,14 +16143,14 @@
       <c r="E222" t="s">
         <v>108</v>
       </c>
-      <c r="F222" t="s">
-        <v>19</v>
+      <c r="F222">
+        <v>3.8</v>
       </c>
       <c r="G222" t="s">
         <v>19</v>
       </c>
-      <c r="H222" t="s">
-        <v>19</v>
+      <c r="H222">
+        <v>150</v>
       </c>
       <c r="I222" t="s">
         <v>1270</v>
@@ -16178,14 +16184,14 @@
       <c r="E223" t="s">
         <v>1274</v>
       </c>
-      <c r="F223" t="s">
-        <v>19</v>
+      <c r="F223">
+        <v>4.7</v>
       </c>
       <c r="G223" t="s">
         <v>1275</v>
       </c>
-      <c r="H223" t="s">
-        <v>19</v>
+      <c r="H223">
+        <v>102</v>
       </c>
       <c r="I223" t="s">
         <v>1276</v>
@@ -16219,14 +16225,14 @@
       <c r="E224" t="s">
         <v>108</v>
       </c>
-      <c r="F224" t="s">
-        <v>19</v>
+      <c r="F224">
+        <v>3.6</v>
       </c>
       <c r="G224" t="s">
         <v>498</v>
       </c>
-      <c r="H224" t="s">
-        <v>19</v>
+      <c r="H224">
+        <v>171</v>
       </c>
       <c r="I224" t="s">
         <v>1280</v>
@@ -16260,14 +16266,14 @@
       <c r="E225" t="s">
         <v>30</v>
       </c>
-      <c r="F225" t="s">
-        <v>19</v>
+      <c r="F225">
+        <v>4.3</v>
       </c>
       <c r="G225" t="s">
         <v>94</v>
       </c>
-      <c r="H225" t="s">
-        <v>19</v>
+      <c r="H225">
+        <v>836</v>
       </c>
       <c r="I225" t="s">
         <v>1285</v>
@@ -16301,14 +16307,14 @@
       <c r="E226" t="s">
         <v>316</v>
       </c>
-      <c r="F226" t="s">
-        <v>19</v>
+      <c r="F226">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G226" t="s">
         <v>946</v>
       </c>
-      <c r="H226" t="s">
-        <v>19</v>
+      <c r="H226">
+        <v>93</v>
       </c>
       <c r="I226" t="s">
         <v>1290</v>
@@ -16342,14 +16348,14 @@
       <c r="E227" t="s">
         <v>1095</v>
       </c>
-      <c r="F227" t="s">
-        <v>19</v>
+      <c r="F227">
+        <v>2.9</v>
       </c>
       <c r="G227" t="s">
         <v>518</v>
       </c>
-      <c r="H227" t="s">
-        <v>19</v>
+      <c r="H227">
+        <v>18</v>
       </c>
       <c r="I227" t="s">
         <v>1295</v>
@@ -16383,14 +16389,14 @@
       <c r="E228" t="s">
         <v>142</v>
       </c>
-      <c r="F228" t="s">
-        <v>19</v>
+      <c r="F228">
+        <v>4.5</v>
       </c>
       <c r="G228" t="s">
         <v>1300</v>
       </c>
-      <c r="H228" t="s">
-        <v>19</v>
+      <c r="H228">
+        <v>248</v>
       </c>
       <c r="I228" t="s">
         <v>1301</v>
@@ -16424,14 +16430,14 @@
       <c r="E229" t="s">
         <v>1306</v>
       </c>
-      <c r="F229" t="s">
-        <v>19</v>
+      <c r="F229">
+        <v>4.5</v>
       </c>
       <c r="G229" t="s">
         <v>317</v>
       </c>
-      <c r="H229" t="s">
-        <v>19</v>
+      <c r="H229">
+        <v>426</v>
       </c>
       <c r="I229" t="s">
         <v>19</v>
@@ -16465,14 +16471,14 @@
       <c r="E230" t="s">
         <v>108</v>
       </c>
-      <c r="F230" t="s">
-        <v>19</v>
+      <c r="F230">
+        <v>4.7</v>
       </c>
       <c r="G230" t="s">
         <v>395</v>
       </c>
-      <c r="H230" t="s">
-        <v>19</v>
+      <c r="H230">
+        <v>687</v>
       </c>
       <c r="I230" t="s">
         <v>1310</v>
@@ -16506,14 +16512,14 @@
       <c r="E231" t="s">
         <v>122</v>
       </c>
-      <c r="F231" t="s">
-        <v>19</v>
+      <c r="F231">
+        <v>3.1</v>
       </c>
       <c r="G231" t="s">
         <v>1314</v>
       </c>
-      <c r="H231" t="s">
-        <v>19</v>
+      <c r="H231">
+        <v>119</v>
       </c>
       <c r="I231" t="s">
         <v>158</v>
@@ -16547,14 +16553,14 @@
       <c r="E232" t="s">
         <v>157</v>
       </c>
-      <c r="F232" t="s">
-        <v>19</v>
+      <c r="F232">
+        <v>4.8</v>
       </c>
       <c r="G232" t="s">
         <v>57</v>
       </c>
-      <c r="H232" t="s">
-        <v>19</v>
+      <c r="H232">
+        <v>1375</v>
       </c>
       <c r="I232" t="s">
         <v>288</v>
@@ -16588,14 +16594,14 @@
       <c r="E233" t="s">
         <v>80</v>
       </c>
-      <c r="F233" t="s">
-        <v>19</v>
+      <c r="F233">
+        <v>4.5</v>
       </c>
       <c r="G233" t="s">
         <v>1320</v>
       </c>
-      <c r="H233" t="s">
-        <v>19</v>
+      <c r="H233">
+        <v>462</v>
       </c>
       <c r="I233" t="s">
         <v>1321</v>
@@ -16629,14 +16635,14 @@
       <c r="E234" t="s">
         <v>346</v>
       </c>
-      <c r="F234" t="s">
-        <v>19</v>
+      <c r="F234">
+        <v>3.9</v>
       </c>
       <c r="G234" t="s">
         <v>1326</v>
       </c>
-      <c r="H234" t="s">
-        <v>19</v>
+      <c r="H234">
+        <v>970</v>
       </c>
       <c r="I234" t="s">
         <v>1327</v>
@@ -16670,14 +16676,14 @@
       <c r="E235" t="s">
         <v>218</v>
       </c>
-      <c r="F235" t="s">
-        <v>19</v>
+      <c r="F235">
+        <v>4.8</v>
       </c>
       <c r="G235" t="s">
         <v>1331</v>
       </c>
-      <c r="H235" t="s">
-        <v>19</v>
+      <c r="H235">
+        <v>240</v>
       </c>
       <c r="I235" t="s">
         <v>1332</v>
@@ -16711,14 +16717,14 @@
       <c r="E236" t="s">
         <v>122</v>
       </c>
-      <c r="F236" t="s">
-        <v>19</v>
+      <c r="F236">
+        <v>4.2</v>
       </c>
       <c r="G236" t="s">
         <v>1336</v>
       </c>
-      <c r="H236" t="s">
-        <v>19</v>
+      <c r="H236">
+        <v>373</v>
       </c>
       <c r="I236" t="s">
         <v>1016</v>
@@ -16752,14 +16758,14 @@
       <c r="E237" t="s">
         <v>122</v>
       </c>
-      <c r="F237" t="s">
-        <v>19</v>
+      <c r="F237">
+        <v>4.7</v>
       </c>
       <c r="G237" t="s">
         <v>1340</v>
       </c>
-      <c r="H237" t="s">
-        <v>19</v>
+      <c r="H237">
+        <v>179</v>
       </c>
       <c r="I237" t="s">
         <v>1341</v>
@@ -16793,14 +16799,14 @@
       <c r="E238" t="s">
         <v>1345</v>
       </c>
-      <c r="F238" t="s">
-        <v>19</v>
+      <c r="F238">
+        <v>4.3</v>
       </c>
       <c r="G238" t="s">
         <v>31</v>
       </c>
-      <c r="H238" t="s">
-        <v>19</v>
+      <c r="H238">
+        <v>4</v>
       </c>
       <c r="I238" t="s">
         <v>1346</v>
@@ -16875,14 +16881,14 @@
       <c r="E240" t="s">
         <v>108</v>
       </c>
-      <c r="F240" t="s">
-        <v>19</v>
+      <c r="F240">
+        <v>4.3</v>
       </c>
       <c r="G240" t="s">
         <v>94</v>
       </c>
-      <c r="H240" t="s">
-        <v>19</v>
+      <c r="H240">
+        <v>165</v>
       </c>
       <c r="I240" t="s">
         <v>1351</v>
@@ -16916,14 +16922,14 @@
       <c r="E241" t="s">
         <v>1355</v>
       </c>
-      <c r="F241" t="s">
-        <v>19</v>
+      <c r="F241">
+        <v>4</v>
       </c>
       <c r="G241" t="s">
         <v>94</v>
       </c>
-      <c r="H241" t="s">
-        <v>19</v>
+      <c r="H241">
+        <v>29</v>
       </c>
       <c r="I241" t="s">
         <v>1356</v>
@@ -16957,14 +16963,14 @@
       <c r="E242" t="s">
         <v>1360</v>
       </c>
-      <c r="F242" t="s">
-        <v>19</v>
+      <c r="F242">
+        <v>3.9</v>
       </c>
       <c r="G242" t="s">
         <v>1361</v>
       </c>
-      <c r="H242" t="s">
-        <v>19</v>
+      <c r="H242">
+        <v>1848</v>
       </c>
       <c r="I242" t="s">
         <v>1362</v>
@@ -16998,14 +17004,14 @@
       <c r="E243" t="s">
         <v>19</v>
       </c>
-      <c r="F243" t="s">
-        <v>19</v>
+      <c r="F243">
+        <v>4.2</v>
       </c>
       <c r="G243" t="s">
         <v>1367</v>
       </c>
-      <c r="H243" t="s">
-        <v>19</v>
+      <c r="H243">
+        <v>996</v>
       </c>
       <c r="I243" t="s">
         <v>1368</v>
@@ -17039,14 +17045,14 @@
       <c r="E244" t="s">
         <v>665</v>
       </c>
-      <c r="F244" t="s">
-        <v>19</v>
+      <c r="F244">
+        <v>4.2</v>
       </c>
       <c r="G244" t="s">
         <v>530</v>
       </c>
-      <c r="H244" t="s">
-        <v>19</v>
+      <c r="H244">
+        <v>13</v>
       </c>
       <c r="I244" t="s">
         <v>1372</v>
@@ -17080,14 +17086,14 @@
       <c r="E245" t="s">
         <v>1375</v>
       </c>
-      <c r="F245" t="s">
-        <v>19</v>
+      <c r="F245">
+        <v>4.8</v>
       </c>
       <c r="G245" t="s">
         <v>49</v>
       </c>
-      <c r="H245" t="s">
-        <v>19</v>
+      <c r="H245">
+        <v>450</v>
       </c>
       <c r="I245" t="s">
         <v>1376</v>
@@ -17121,14 +17127,14 @@
       <c r="E246" t="s">
         <v>770</v>
       </c>
-      <c r="F246" t="s">
-        <v>19</v>
+      <c r="F246">
+        <v>4.2</v>
       </c>
       <c r="G246" t="s">
         <v>781</v>
       </c>
-      <c r="H246" t="s">
-        <v>19</v>
+      <c r="H246">
+        <v>90</v>
       </c>
       <c r="I246" t="s">
         <v>1380</v>
@@ -17162,14 +17168,14 @@
       <c r="E247" t="s">
         <v>523</v>
       </c>
-      <c r="F247" t="s">
-        <v>19</v>
+      <c r="F247">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G247" t="s">
         <v>1384</v>
       </c>
-      <c r="H247" t="s">
-        <v>19</v>
+      <c r="H247">
+        <v>118</v>
       </c>
       <c r="I247" t="s">
         <v>1385</v>
@@ -17203,14 +17209,14 @@
       <c r="E248" t="s">
         <v>1390</v>
       </c>
-      <c r="F248" t="s">
-        <v>19</v>
+      <c r="F248">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G248" t="s">
         <v>1336</v>
       </c>
-      <c r="H248" t="s">
-        <v>19</v>
+      <c r="H248">
+        <v>266</v>
       </c>
       <c r="I248" t="s">
         <v>1090</v>
@@ -17244,14 +17250,14 @@
       <c r="E249" t="s">
         <v>87</v>
       </c>
-      <c r="F249" t="s">
-        <v>19</v>
+      <c r="F249">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G249" t="s">
         <v>1393</v>
       </c>
-      <c r="H249" t="s">
-        <v>19</v>
+      <c r="H249">
+        <v>541</v>
       </c>
       <c r="I249" t="s">
         <v>1394</v>
@@ -17285,14 +17291,14 @@
       <c r="E250" t="s">
         <v>1398</v>
       </c>
-      <c r="F250" t="s">
-        <v>19</v>
+      <c r="F250">
+        <v>3.8</v>
       </c>
       <c r="G250" t="s">
         <v>94</v>
       </c>
-      <c r="H250" t="s">
-        <v>19</v>
+      <c r="H250">
+        <v>686</v>
       </c>
       <c r="I250" t="s">
         <v>1399</v>
@@ -17326,14 +17332,14 @@
       <c r="E251" t="s">
         <v>56</v>
       </c>
-      <c r="F251" t="s">
-        <v>19</v>
+      <c r="F251">
+        <v>4.3</v>
       </c>
       <c r="G251" t="s">
         <v>946</v>
       </c>
-      <c r="H251" t="s">
-        <v>19</v>
+      <c r="H251">
+        <v>3</v>
       </c>
       <c r="I251" t="s">
         <v>1404</v>
@@ -17367,14 +17373,14 @@
       <c r="E252" t="s">
         <v>316</v>
       </c>
-      <c r="F252" t="s">
-        <v>19</v>
+      <c r="F252">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G252" t="s">
         <v>19</v>
       </c>
-      <c r="H252" t="s">
-        <v>19</v>
+      <c r="H252">
+        <v>1477</v>
       </c>
       <c r="I252" t="s">
         <v>1409</v>
@@ -17408,14 +17414,14 @@
       <c r="E253" t="s">
         <v>122</v>
       </c>
-      <c r="F253" t="s">
-        <v>19</v>
+      <c r="F253">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G253" t="s">
         <v>1414</v>
       </c>
-      <c r="H253" t="s">
-        <v>19</v>
+      <c r="H253">
+        <v>446</v>
       </c>
       <c r="I253" t="s">
         <v>1415</v>
@@ -17490,14 +17496,14 @@
       <c r="E255" t="s">
         <v>48</v>
       </c>
-      <c r="F255" t="s">
-        <v>19</v>
+      <c r="F255">
+        <v>4.3</v>
       </c>
       <c r="G255" t="s">
         <v>1427</v>
       </c>
-      <c r="H255" t="s">
-        <v>19</v>
+      <c r="H255">
+        <v>157</v>
       </c>
       <c r="I255" t="s">
         <v>1428</v>
@@ -17531,14 +17537,14 @@
       <c r="E256" t="s">
         <v>1160</v>
       </c>
-      <c r="F256" t="s">
-        <v>19</v>
+      <c r="F256">
+        <v>4.5</v>
       </c>
       <c r="G256" t="s">
         <v>1150</v>
       </c>
-      <c r="H256" t="s">
-        <v>19</v>
+      <c r="H256">
+        <v>924</v>
       </c>
       <c r="I256" t="s">
         <v>1433</v>
@@ -17572,14 +17578,14 @@
       <c r="E257" t="s">
         <v>1360</v>
       </c>
-      <c r="F257" t="s">
-        <v>19</v>
+      <c r="F257">
+        <v>4.7</v>
       </c>
       <c r="G257" t="s">
         <v>719</v>
       </c>
-      <c r="H257" t="s">
-        <v>19</v>
+      <c r="H257">
+        <v>93</v>
       </c>
       <c r="I257" t="s">
         <v>1437</v>
@@ -17613,14 +17619,14 @@
       <c r="E258" t="s">
         <v>1443</v>
       </c>
-      <c r="F258" t="s">
-        <v>19</v>
+      <c r="F258">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G258" t="s">
         <v>150</v>
       </c>
-      <c r="H258" t="s">
-        <v>19</v>
+      <c r="H258">
+        <v>286</v>
       </c>
       <c r="I258" t="s">
         <v>1444</v>
@@ -17654,14 +17660,14 @@
       <c r="E259" t="s">
         <v>618</v>
       </c>
-      <c r="F259" t="s">
-        <v>19</v>
+      <c r="F259">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G259" t="s">
         <v>1448</v>
       </c>
-      <c r="H259" t="s">
-        <v>19</v>
+      <c r="H259">
+        <v>1074</v>
       </c>
       <c r="I259" t="s">
         <v>1449</v>
@@ -17695,14 +17701,14 @@
       <c r="E260" t="s">
         <v>1242</v>
       </c>
-      <c r="F260" t="s">
-        <v>19</v>
+      <c r="F260">
+        <v>4.5</v>
       </c>
       <c r="G260" t="s">
         <v>518</v>
       </c>
-      <c r="H260" t="s">
-        <v>19</v>
+      <c r="H260">
+        <v>957</v>
       </c>
       <c r="I260" t="s">
         <v>1453</v>
@@ -17736,14 +17742,14 @@
       <c r="E261" t="s">
         <v>394</v>
       </c>
-      <c r="F261" t="s">
-        <v>19</v>
+      <c r="F261">
+        <v>4.3</v>
       </c>
       <c r="G261" t="s">
         <v>150</v>
       </c>
-      <c r="H261" t="s">
-        <v>19</v>
+      <c r="H261">
+        <v>740</v>
       </c>
       <c r="I261" t="s">
         <v>1458</v>
@@ -17777,14 +17783,14 @@
       <c r="E262" t="s">
         <v>1160</v>
       </c>
-      <c r="F262" t="s">
-        <v>19</v>
+      <c r="F262">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G262" t="s">
         <v>1336</v>
       </c>
-      <c r="H262" t="s">
-        <v>19</v>
+      <c r="H262">
+        <v>1318</v>
       </c>
       <c r="I262" t="s">
         <v>1109</v>
@@ -17818,14 +17824,14 @@
       <c r="E263" t="s">
         <v>157</v>
       </c>
-      <c r="F263" t="s">
-        <v>19</v>
+      <c r="F263">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G263" t="s">
         <v>1464</v>
       </c>
-      <c r="H263" t="s">
-        <v>19</v>
+      <c r="H263">
+        <v>1109</v>
       </c>
       <c r="I263" t="s">
         <v>1465</v>
@@ -17859,14 +17865,14 @@
       <c r="E264" t="s">
         <v>1470</v>
       </c>
-      <c r="F264" t="s">
-        <v>19</v>
+      <c r="F264">
+        <v>4.7</v>
       </c>
       <c r="G264" t="s">
         <v>73</v>
       </c>
-      <c r="H264" t="s">
-        <v>19</v>
+      <c r="H264">
+        <v>934</v>
       </c>
       <c r="I264" t="s">
         <v>1471</v>
@@ -17900,14 +17906,14 @@
       <c r="E265" t="s">
         <v>984</v>
       </c>
-      <c r="F265" t="s">
-        <v>19</v>
+      <c r="F265">
+        <v>4.7</v>
       </c>
       <c r="G265" t="s">
         <v>1477</v>
       </c>
-      <c r="H265" t="s">
-        <v>19</v>
+      <c r="H265">
+        <v>932</v>
       </c>
       <c r="I265" t="s">
         <v>1478</v>
@@ -17941,14 +17947,14 @@
       <c r="E266" t="s">
         <v>260</v>
       </c>
-      <c r="F266" t="s">
-        <v>19</v>
+      <c r="F266">
+        <v>3.8</v>
       </c>
       <c r="G266" t="s">
         <v>19</v>
       </c>
-      <c r="H266" t="s">
-        <v>19</v>
+      <c r="H266">
+        <v>20</v>
       </c>
       <c r="I266" t="s">
         <v>1482</v>
@@ -17982,14 +17988,14 @@
       <c r="E267" t="s">
         <v>529</v>
       </c>
-      <c r="F267" t="s">
-        <v>19</v>
+      <c r="F267">
+        <v>4.3</v>
       </c>
       <c r="G267" t="s">
         <v>1486</v>
       </c>
-      <c r="H267" t="s">
-        <v>19</v>
+      <c r="H267">
+        <v>3724</v>
       </c>
       <c r="I267" t="s">
         <v>1487</v>
@@ -18023,14 +18029,14 @@
       <c r="E268" t="s">
         <v>316</v>
       </c>
-      <c r="F268" t="s">
-        <v>19</v>
+      <c r="F268">
+        <v>4.5</v>
       </c>
       <c r="G268" t="s">
         <v>1491</v>
       </c>
-      <c r="H268" t="s">
-        <v>19</v>
+      <c r="H268">
+        <v>126</v>
       </c>
       <c r="I268" t="s">
         <v>1492</v>
@@ -18064,14 +18070,14 @@
       <c r="E269" t="s">
         <v>1496</v>
       </c>
-      <c r="F269" t="s">
-        <v>19</v>
+      <c r="F269">
+        <v>4.3</v>
       </c>
       <c r="G269" t="s">
         <v>1497</v>
       </c>
-      <c r="H269" t="s">
-        <v>19</v>
+      <c r="H269">
+        <v>60</v>
       </c>
       <c r="I269" t="s">
         <v>1498</v>
@@ -18105,14 +18111,14 @@
       <c r="E270" t="s">
         <v>906</v>
       </c>
-      <c r="F270" t="s">
-        <v>19</v>
+      <c r="F270">
+        <v>4.7</v>
       </c>
       <c r="G270" t="s">
         <v>1504</v>
       </c>
-      <c r="H270" t="s">
-        <v>19</v>
+      <c r="H270">
+        <v>280</v>
       </c>
       <c r="I270" t="s">
         <v>1505</v>
@@ -18146,14 +18152,14 @@
       <c r="E271" t="s">
         <v>327</v>
       </c>
-      <c r="F271" t="s">
-        <v>19</v>
+      <c r="F271">
+        <v>4.3</v>
       </c>
       <c r="G271" t="s">
         <v>1509</v>
       </c>
-      <c r="H271" t="s">
-        <v>19</v>
+      <c r="H271">
+        <v>117</v>
       </c>
       <c r="I271" t="s">
         <v>1510</v>
@@ -18187,14 +18193,14 @@
       <c r="E272" t="s">
         <v>65</v>
       </c>
-      <c r="F272" t="s">
-        <v>19</v>
+      <c r="F272">
+        <v>4.2</v>
       </c>
       <c r="G272" t="s">
         <v>1515</v>
       </c>
-      <c r="H272" t="s">
-        <v>19</v>
+      <c r="H272">
+        <v>58</v>
       </c>
       <c r="I272" t="s">
         <v>1516</v>
@@ -18228,14 +18234,14 @@
       <c r="E273" t="s">
         <v>1443</v>
       </c>
-      <c r="F273" t="s">
-        <v>19</v>
+      <c r="F273">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G273" t="s">
         <v>1520</v>
       </c>
-      <c r="H273" t="s">
-        <v>19</v>
+      <c r="H273">
+        <v>5896</v>
       </c>
       <c r="I273" t="s">
         <v>1521</v>
@@ -18269,14 +18275,14 @@
       <c r="E274" t="s">
         <v>65</v>
       </c>
-      <c r="F274" t="s">
-        <v>19</v>
+      <c r="F274">
+        <v>4.5</v>
       </c>
       <c r="G274" t="s">
         <v>1525</v>
       </c>
-      <c r="H274" t="s">
-        <v>19</v>
+      <c r="H274">
+        <v>217</v>
       </c>
       <c r="I274" t="s">
         <v>1526</v>
@@ -18310,14 +18316,14 @@
       <c r="E275" t="s">
         <v>1149</v>
       </c>
-      <c r="F275" t="s">
-        <v>19</v>
+      <c r="F275">
+        <v>3.8</v>
       </c>
       <c r="G275" t="s">
         <v>1530</v>
       </c>
-      <c r="H275" t="s">
-        <v>19</v>
+      <c r="H275">
+        <v>21</v>
       </c>
       <c r="I275" t="s">
         <v>1531</v>
@@ -18351,14 +18357,14 @@
       <c r="E276" t="s">
         <v>984</v>
       </c>
-      <c r="F276" t="s">
-        <v>19</v>
+      <c r="F276">
+        <v>4.2</v>
       </c>
       <c r="G276" t="s">
         <v>1536</v>
       </c>
-      <c r="H276" t="s">
-        <v>19</v>
+      <c r="H276">
+        <v>32</v>
       </c>
       <c r="I276" t="s">
         <v>1537</v>
@@ -18392,14 +18398,14 @@
       <c r="E277" t="s">
         <v>1541</v>
       </c>
-      <c r="F277" t="s">
-        <v>19</v>
+      <c r="F277">
+        <v>4.7</v>
       </c>
       <c r="G277" t="s">
         <v>1542</v>
       </c>
-      <c r="H277" t="s">
-        <v>19</v>
+      <c r="H277">
+        <v>97</v>
       </c>
       <c r="I277" t="s">
         <v>1543</v>
@@ -18433,14 +18439,14 @@
       <c r="E278" t="s">
         <v>260</v>
       </c>
-      <c r="F278" t="s">
-        <v>19</v>
+      <c r="F278">
+        <v>4.5</v>
       </c>
       <c r="G278" t="s">
         <v>261</v>
       </c>
-      <c r="H278" t="s">
-        <v>19</v>
+      <c r="H278">
+        <v>484</v>
       </c>
       <c r="I278" t="s">
         <v>1547</v>
@@ -18474,14 +18480,14 @@
       <c r="E279" t="s">
         <v>48</v>
       </c>
-      <c r="F279" t="s">
-        <v>19</v>
+      <c r="F279">
+        <v>4.5</v>
       </c>
       <c r="G279" t="s">
         <v>1551</v>
       </c>
-      <c r="H279" t="s">
-        <v>19</v>
+      <c r="H279">
+        <v>155</v>
       </c>
       <c r="I279" t="s">
         <v>1552</v>
@@ -18515,14 +18521,14 @@
       <c r="E280" t="s">
         <v>1556</v>
       </c>
-      <c r="F280" t="s">
-        <v>19</v>
+      <c r="F280">
+        <v>4.3</v>
       </c>
       <c r="G280" t="s">
         <v>1557</v>
       </c>
-      <c r="H280" t="s">
-        <v>19</v>
+      <c r="H280">
+        <v>763</v>
       </c>
       <c r="I280" t="s">
         <v>1558</v>
@@ -18556,14 +18562,14 @@
       <c r="E281" t="s">
         <v>163</v>
       </c>
-      <c r="F281" t="s">
-        <v>19</v>
+      <c r="F281">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G281" t="s">
         <v>1562</v>
       </c>
-      <c r="H281" t="s">
-        <v>19</v>
+      <c r="H281">
+        <v>405</v>
       </c>
       <c r="I281" t="s">
         <v>1563</v>
@@ -18597,14 +18603,14 @@
       <c r="E282" t="s">
         <v>846</v>
       </c>
-      <c r="F282" t="s">
-        <v>19</v>
+      <c r="F282">
+        <v>3.2</v>
       </c>
       <c r="G282" t="s">
         <v>19</v>
       </c>
-      <c r="H282" t="s">
-        <v>19</v>
+      <c r="H282">
+        <v>6</v>
       </c>
       <c r="I282" t="s">
         <v>1567</v>
@@ -18638,14 +18644,14 @@
       <c r="E283" t="s">
         <v>163</v>
       </c>
-      <c r="F283" t="s">
-        <v>19</v>
+      <c r="F283">
+        <v>4.5</v>
       </c>
       <c r="G283" t="s">
         <v>1571</v>
       </c>
-      <c r="H283" t="s">
-        <v>19</v>
+      <c r="H283">
+        <v>1686</v>
       </c>
       <c r="I283" t="s">
         <v>1572</v>
@@ -18679,14 +18685,14 @@
       <c r="E284" t="s">
         <v>1576</v>
       </c>
-      <c r="F284" t="s">
-        <v>19</v>
+      <c r="F284">
+        <v>4</v>
       </c>
       <c r="G284" t="s">
         <v>1577</v>
       </c>
-      <c r="H284" t="s">
-        <v>19</v>
+      <c r="H284">
+        <v>192</v>
       </c>
       <c r="I284" t="s">
         <v>1578</v>
@@ -18761,14 +18767,14 @@
       <c r="E286" t="s">
         <v>1589</v>
       </c>
-      <c r="F286" t="s">
-        <v>19</v>
+      <c r="F286">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G286" t="s">
         <v>1571</v>
       </c>
-      <c r="H286" t="s">
-        <v>19</v>
+      <c r="H286">
+        <v>38</v>
       </c>
       <c r="I286" t="s">
         <v>1590</v>
@@ -18802,14 +18808,14 @@
       <c r="E287" t="s">
         <v>72</v>
       </c>
-      <c r="F287" t="s">
-        <v>19</v>
+      <c r="F287">
+        <v>4.8</v>
       </c>
       <c r="G287" t="s">
         <v>19</v>
       </c>
-      <c r="H287" t="s">
-        <v>19</v>
+      <c r="H287">
+        <v>91</v>
       </c>
       <c r="I287" t="s">
         <v>1596</v>
@@ -18843,14 +18849,14 @@
       <c r="E288" t="s">
         <v>846</v>
       </c>
-      <c r="F288" t="s">
-        <v>19</v>
+      <c r="F288">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G288" t="s">
         <v>1600</v>
       </c>
-      <c r="H288" t="s">
-        <v>19</v>
+      <c r="H288">
+        <v>575</v>
       </c>
       <c r="I288" t="s">
         <v>1601</v>
@@ -18884,14 +18890,14 @@
       <c r="E289" t="s">
         <v>339</v>
       </c>
-      <c r="F289" t="s">
-        <v>19</v>
+      <c r="F289">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G289" t="s">
         <v>317</v>
       </c>
-      <c r="H289" t="s">
-        <v>19</v>
+      <c r="H289">
+        <v>261</v>
       </c>
       <c r="I289" t="s">
         <v>1605</v>
@@ -18925,14 +18931,14 @@
       <c r="E290" t="s">
         <v>756</v>
       </c>
-      <c r="F290" t="s">
-        <v>19</v>
+      <c r="F290">
+        <v>4.8</v>
       </c>
       <c r="G290" t="s">
         <v>1609</v>
       </c>
-      <c r="H290" t="s">
-        <v>19</v>
+      <c r="H290">
+        <v>353</v>
       </c>
       <c r="I290" t="s">
         <v>1610</v>
@@ -18966,14 +18972,14 @@
       <c r="E291" t="s">
         <v>1615</v>
       </c>
-      <c r="F291" t="s">
-        <v>19</v>
+      <c r="F291">
+        <v>4.3</v>
       </c>
       <c r="G291" t="s">
         <v>1616</v>
       </c>
-      <c r="H291" t="s">
-        <v>19</v>
+      <c r="H291">
+        <v>24</v>
       </c>
       <c r="I291" t="s">
         <v>1617</v>
@@ -19007,14 +19013,14 @@
       <c r="E292" t="s">
         <v>846</v>
       </c>
-      <c r="F292" t="s">
-        <v>19</v>
+      <c r="F292">
+        <v>3.7</v>
       </c>
       <c r="G292" t="s">
         <v>19</v>
       </c>
-      <c r="H292" t="s">
-        <v>19</v>
+      <c r="H292">
+        <v>9</v>
       </c>
       <c r="I292" t="s">
         <v>1622</v>
@@ -19048,14 +19054,14 @@
       <c r="E293" t="s">
         <v>1541</v>
       </c>
-      <c r="F293" t="s">
-        <v>19</v>
+      <c r="F293">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G293" t="s">
         <v>1542</v>
       </c>
-      <c r="H293" t="s">
-        <v>19</v>
+      <c r="H293">
+        <v>70</v>
       </c>
       <c r="I293" t="s">
         <v>1626</v>
@@ -19089,14 +19095,14 @@
       <c r="E294" t="s">
         <v>80</v>
       </c>
-      <c r="F294" t="s">
-        <v>19</v>
+      <c r="F294">
+        <v>3.9</v>
       </c>
       <c r="G294" t="s">
         <v>1631</v>
       </c>
-      <c r="H294" t="s">
-        <v>19</v>
+      <c r="H294">
+        <v>32</v>
       </c>
       <c r="I294" t="s">
         <v>1632</v>
@@ -19130,14 +19136,14 @@
       <c r="E295" t="s">
         <v>48</v>
       </c>
-      <c r="F295" t="s">
-        <v>19</v>
+      <c r="F295">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G295" t="s">
         <v>237</v>
       </c>
-      <c r="H295" t="s">
-        <v>19</v>
+      <c r="H295">
+        <v>793</v>
       </c>
       <c r="I295" t="s">
         <v>1636</v>
@@ -19171,14 +19177,14 @@
       <c r="E296" t="s">
         <v>1556</v>
       </c>
-      <c r="F296" t="s">
-        <v>19</v>
+      <c r="F296">
+        <v>4.3</v>
       </c>
       <c r="G296" t="s">
         <v>1557</v>
       </c>
-      <c r="H296" t="s">
-        <v>19</v>
+      <c r="H296">
+        <v>763</v>
       </c>
       <c r="I296" t="s">
         <v>1640</v>
@@ -19212,14 +19218,14 @@
       <c r="E297" t="s">
         <v>829</v>
       </c>
-      <c r="F297" t="s">
-        <v>19</v>
+      <c r="F297">
+        <v>4.5</v>
       </c>
       <c r="G297" t="s">
         <v>1644</v>
       </c>
-      <c r="H297" t="s">
-        <v>19</v>
+      <c r="H297">
+        <v>2</v>
       </c>
       <c r="I297" t="s">
         <v>1645</v>
@@ -19253,14 +19259,14 @@
       <c r="E298" t="s">
         <v>48</v>
       </c>
-      <c r="F298" t="s">
-        <v>19</v>
+      <c r="F298">
+        <v>4.2</v>
       </c>
       <c r="G298" t="s">
         <v>1649</v>
       </c>
-      <c r="H298" t="s">
-        <v>19</v>
+      <c r="H298">
+        <v>2430</v>
       </c>
       <c r="I298" t="s">
         <v>1650</v>
@@ -19294,14 +19300,14 @@
       <c r="E299" t="s">
         <v>1224</v>
       </c>
-      <c r="F299" t="s">
-        <v>19</v>
+      <c r="F299">
+        <v>4.5</v>
       </c>
       <c r="G299" t="s">
         <v>1655</v>
       </c>
-      <c r="H299" t="s">
-        <v>19</v>
+      <c r="H299">
+        <v>743</v>
       </c>
       <c r="I299" t="s">
         <v>1656</v>
@@ -19335,14 +19341,14 @@
       <c r="E300" t="s">
         <v>280</v>
       </c>
-      <c r="F300" t="s">
-        <v>19</v>
+      <c r="F300">
+        <v>4.7</v>
       </c>
       <c r="G300" t="s">
         <v>1661</v>
       </c>
-      <c r="H300" t="s">
-        <v>19</v>
+      <c r="H300">
+        <v>462</v>
       </c>
       <c r="I300" t="s">
         <v>1662</v>
@@ -19376,14 +19382,14 @@
       <c r="E301" t="s">
         <v>1666</v>
       </c>
-      <c r="F301" t="s">
-        <v>19</v>
+      <c r="F301">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G301" t="s">
         <v>1667</v>
       </c>
-      <c r="H301" t="s">
-        <v>19</v>
+      <c r="H301">
+        <v>193</v>
       </c>
       <c r="I301" t="s">
         <v>1668</v>
@@ -19417,14 +19423,14 @@
       <c r="E302" t="s">
         <v>87</v>
       </c>
-      <c r="F302" t="s">
-        <v>19</v>
+      <c r="F302">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G302" t="s">
         <v>1672</v>
       </c>
-      <c r="H302" t="s">
-        <v>19</v>
+      <c r="H302">
+        <v>2107</v>
       </c>
       <c r="I302" t="s">
         <v>1673</v>
@@ -19458,14 +19464,14 @@
       <c r="E303" t="s">
         <v>455</v>
       </c>
-      <c r="F303" t="s">
-        <v>19</v>
+      <c r="F303">
+        <v>4.3</v>
       </c>
       <c r="G303" t="s">
         <v>73</v>
       </c>
-      <c r="H303" t="s">
-        <v>19</v>
+      <c r="H303">
+        <v>210</v>
       </c>
       <c r="I303" t="s">
         <v>1677</v>
@@ -19499,14 +19505,14 @@
       <c r="E304" t="s">
         <v>30</v>
       </c>
-      <c r="F304" t="s">
-        <v>19</v>
+      <c r="F304">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G304" t="s">
         <v>1571</v>
       </c>
-      <c r="H304" t="s">
-        <v>19</v>
+      <c r="H304">
+        <v>564</v>
       </c>
       <c r="I304" t="s">
         <v>1681</v>
@@ -19540,14 +19546,14 @@
       <c r="E305" t="s">
         <v>40</v>
       </c>
-      <c r="F305" t="s">
-        <v>19</v>
+      <c r="F305">
+        <v>4.3</v>
       </c>
       <c r="G305" t="s">
         <v>518</v>
       </c>
-      <c r="H305" t="s">
-        <v>19</v>
+      <c r="H305">
+        <v>2955</v>
       </c>
       <c r="I305" t="s">
         <v>1686</v>
@@ -19581,14 +19587,14 @@
       <c r="E306" t="s">
         <v>374</v>
       </c>
-      <c r="F306" t="s">
-        <v>19</v>
+      <c r="F306">
+        <v>4.3</v>
       </c>
       <c r="G306" t="s">
         <v>1691</v>
       </c>
-      <c r="H306" t="s">
-        <v>19</v>
+      <c r="H306">
+        <v>104</v>
       </c>
       <c r="I306" t="s">
         <v>1692</v>
@@ -19622,14 +19628,14 @@
       <c r="E307" t="s">
         <v>30</v>
       </c>
-      <c r="F307" t="s">
-        <v>19</v>
+      <c r="F307">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G307" t="s">
         <v>1696</v>
       </c>
-      <c r="H307" t="s">
-        <v>19</v>
+      <c r="H307">
+        <v>337</v>
       </c>
       <c r="I307" t="s">
         <v>1697</v>
@@ -19663,14 +19669,14 @@
       <c r="E308" t="s">
         <v>72</v>
       </c>
-      <c r="F308" t="s">
-        <v>19</v>
+      <c r="F308">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G308" t="s">
         <v>1701</v>
       </c>
-      <c r="H308" t="s">
-        <v>19</v>
+      <c r="H308">
+        <v>298</v>
       </c>
       <c r="I308" t="s">
         <v>1702</v>
@@ -19704,14 +19710,14 @@
       <c r="E309" t="s">
         <v>87</v>
       </c>
-      <c r="F309" t="s">
-        <v>19</v>
+      <c r="F309">
+        <v>4.3</v>
       </c>
       <c r="G309" t="s">
         <v>19</v>
       </c>
-      <c r="H309" t="s">
-        <v>19</v>
+      <c r="H309">
+        <v>28</v>
       </c>
       <c r="I309" t="s">
         <v>1706</v>
@@ -19745,14 +19751,14 @@
       <c r="E310" t="s">
         <v>280</v>
       </c>
-      <c r="F310" t="s">
-        <v>19</v>
+      <c r="F310">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G310" t="s">
         <v>1710</v>
       </c>
-      <c r="H310" t="s">
-        <v>19</v>
+      <c r="H310">
+        <v>348</v>
       </c>
       <c r="I310" t="s">
         <v>1711</v>
@@ -19786,14 +19792,14 @@
       <c r="E311" t="s">
         <v>87</v>
       </c>
-      <c r="F311" t="s">
-        <v>19</v>
+      <c r="F311">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G311" t="s">
         <v>109</v>
       </c>
-      <c r="H311" t="s">
-        <v>19</v>
+      <c r="H311">
+        <v>527</v>
       </c>
       <c r="I311" t="s">
         <v>1715</v>
@@ -19827,14 +19833,14 @@
       <c r="E312" t="s">
         <v>1583</v>
       </c>
-      <c r="F312" t="s">
-        <v>19</v>
+      <c r="F312">
+        <v>3.4</v>
       </c>
       <c r="G312" t="s">
         <v>1030</v>
       </c>
-      <c r="H312" t="s">
-        <v>19</v>
+      <c r="H312">
+        <v>22</v>
       </c>
       <c r="I312" t="s">
         <v>1719</v>
@@ -19868,14 +19874,14 @@
       <c r="E313" t="s">
         <v>1723</v>
       </c>
-      <c r="F313" t="s">
-        <v>19</v>
+      <c r="F313">
+        <v>3.9</v>
       </c>
       <c r="G313" t="s">
         <v>1724</v>
       </c>
-      <c r="H313" t="s">
-        <v>19</v>
+      <c r="H313">
+        <v>718</v>
       </c>
       <c r="I313" t="s">
         <v>1725</v>
@@ -19909,14 +19915,14 @@
       <c r="E314" t="s">
         <v>218</v>
       </c>
-      <c r="F314" t="s">
-        <v>19</v>
+      <c r="F314">
+        <v>4.3</v>
       </c>
       <c r="G314" t="s">
         <v>1729</v>
       </c>
-      <c r="H314" t="s">
-        <v>19</v>
+      <c r="H314">
+        <v>1217</v>
       </c>
       <c r="I314" t="s">
         <v>1730</v>
@@ -19950,14 +19956,14 @@
       <c r="E315" t="s">
         <v>87</v>
       </c>
-      <c r="F315" t="s">
-        <v>19</v>
+      <c r="F315">
+        <v>4.5</v>
       </c>
       <c r="G315" t="s">
         <v>261</v>
       </c>
-      <c r="H315" t="s">
-        <v>19</v>
+      <c r="H315">
+        <v>527</v>
       </c>
       <c r="I315" t="s">
         <v>1734</v>
@@ -19991,14 +19997,14 @@
       <c r="E316" t="s">
         <v>1723</v>
       </c>
-      <c r="F316" t="s">
-        <v>19</v>
+      <c r="F316">
+        <v>3.7</v>
       </c>
       <c r="G316" t="s">
         <v>19</v>
       </c>
-      <c r="H316" t="s">
-        <v>19</v>
+      <c r="H316">
+        <v>124</v>
       </c>
       <c r="I316" t="s">
         <v>1738</v>
@@ -20032,14 +20038,14 @@
       <c r="E317" t="s">
         <v>80</v>
       </c>
-      <c r="F317" t="s">
-        <v>19</v>
+      <c r="F317">
+        <v>4.3</v>
       </c>
       <c r="G317" t="s">
         <v>1742</v>
       </c>
-      <c r="H317" t="s">
-        <v>19</v>
+      <c r="H317">
+        <v>23</v>
       </c>
       <c r="I317" t="s">
         <v>1743</v>
@@ -20070,17 +20076,17 @@
       <c r="D318" t="s">
         <v>1503</v>
       </c>
-      <c r="E318" t="s">
-        <v>19</v>
-      </c>
-      <c r="F318" t="s">
-        <v>19</v>
+      <c r="E318" s="4">
+        <v>24</v>
+      </c>
+      <c r="F318">
+        <v>4.5</v>
       </c>
       <c r="G318" t="s">
         <v>1748</v>
       </c>
-      <c r="H318" t="s">
-        <v>19</v>
+      <c r="H318">
+        <v>37</v>
       </c>
       <c r="I318" t="s">
         <v>1749</v>
@@ -20114,14 +20120,14 @@
       <c r="E319" t="s">
         <v>122</v>
       </c>
-      <c r="F319" t="s">
-        <v>19</v>
+      <c r="F319">
+        <v>4.8</v>
       </c>
       <c r="G319" t="s">
         <v>1753</v>
       </c>
-      <c r="H319" t="s">
-        <v>19</v>
+      <c r="H319">
+        <v>32</v>
       </c>
       <c r="I319" t="s">
         <v>1754</v>
@@ -20155,14 +20161,14 @@
       <c r="E320" t="s">
         <v>40</v>
       </c>
-      <c r="F320" t="s">
-        <v>19</v>
+      <c r="F320">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G320" t="s">
         <v>1525</v>
       </c>
-      <c r="H320" t="s">
-        <v>19</v>
+      <c r="H320">
+        <v>2107</v>
       </c>
       <c r="I320" t="s">
         <v>1758</v>
@@ -20196,14 +20202,14 @@
       <c r="E321" t="s">
         <v>1556</v>
       </c>
-      <c r="F321" t="s">
-        <v>19</v>
+      <c r="F321">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G321" t="s">
         <v>237</v>
       </c>
-      <c r="H321" t="s">
-        <v>19</v>
+      <c r="H321">
+        <v>522</v>
       </c>
       <c r="I321" t="s">
         <v>1762</v>
@@ -20237,14 +20243,14 @@
       <c r="E322" t="s">
         <v>1556</v>
       </c>
-      <c r="F322" t="s">
-        <v>19</v>
+      <c r="F322">
+        <v>4.3</v>
       </c>
       <c r="G322" t="s">
         <v>1557</v>
       </c>
-      <c r="H322" t="s">
-        <v>19</v>
+      <c r="H322">
+        <v>763</v>
       </c>
       <c r="I322" t="s">
         <v>1766</v>
@@ -20278,14 +20284,14 @@
       <c r="E323" t="s">
         <v>394</v>
       </c>
-      <c r="F323" t="s">
-        <v>19</v>
+      <c r="F323">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G323" t="s">
         <v>1770</v>
       </c>
-      <c r="H323" t="s">
-        <v>19</v>
+      <c r="H323">
+        <v>991</v>
       </c>
       <c r="I323" t="s">
         <v>1771</v>
@@ -20319,14 +20325,14 @@
       <c r="E324" t="s">
         <v>72</v>
       </c>
-      <c r="F324" t="s">
-        <v>19</v>
+      <c r="F324">
+        <v>3.9</v>
       </c>
       <c r="G324" t="s">
         <v>94</v>
       </c>
-      <c r="H324" t="s">
-        <v>19</v>
+      <c r="H324">
+        <v>257</v>
       </c>
       <c r="I324" t="s">
         <v>1775</v>
@@ -20360,14 +20366,14 @@
       <c r="E325" t="s">
         <v>1781</v>
       </c>
-      <c r="F325" t="s">
-        <v>19</v>
+      <c r="F325">
+        <v>4.7</v>
       </c>
       <c r="G325" t="s">
         <v>1782</v>
       </c>
-      <c r="H325" t="s">
-        <v>19</v>
+      <c r="H325">
+        <v>877</v>
       </c>
       <c r="I325" t="s">
         <v>1783</v>
@@ -20401,14 +20407,14 @@
       <c r="E326" t="s">
         <v>163</v>
       </c>
-      <c r="F326" t="s">
-        <v>19</v>
+      <c r="F326">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G326" t="s">
         <v>1571</v>
       </c>
-      <c r="H326" t="s">
-        <v>19</v>
+      <c r="H326">
+        <v>1006</v>
       </c>
       <c r="I326" t="s">
         <v>19</v>
@@ -20442,14 +20448,14 @@
       <c r="E327" t="s">
         <v>30</v>
       </c>
-      <c r="F327" t="s">
-        <v>19</v>
+      <c r="F327">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G327" t="s">
         <v>1515</v>
       </c>
-      <c r="H327" t="s">
-        <v>19</v>
+      <c r="H327">
+        <v>1262</v>
       </c>
       <c r="I327" t="s">
         <v>1791</v>
@@ -20483,14 +20489,14 @@
       <c r="E328" t="s">
         <v>218</v>
       </c>
-      <c r="F328" t="s">
-        <v>19</v>
+      <c r="F328">
+        <v>4.5</v>
       </c>
       <c r="G328" t="s">
         <v>1795</v>
       </c>
-      <c r="H328" t="s">
-        <v>19</v>
+      <c r="H328">
+        <v>743</v>
       </c>
       <c r="I328" t="s">
         <v>1656</v>
@@ -20524,14 +20530,14 @@
       <c r="E329" t="s">
         <v>87</v>
       </c>
-      <c r="F329" t="s">
-        <v>19</v>
+      <c r="F329">
+        <v>4.5</v>
       </c>
       <c r="G329" t="s">
         <v>317</v>
       </c>
-      <c r="H329" t="s">
-        <v>19</v>
+      <c r="H329">
+        <v>1078</v>
       </c>
       <c r="I329" t="s">
         <v>1799</v>
@@ -20565,14 +20571,14 @@
       <c r="E330" t="s">
         <v>1803</v>
       </c>
-      <c r="F330" t="s">
-        <v>19</v>
+      <c r="F330">
+        <v>4.5</v>
       </c>
       <c r="G330" t="s">
         <v>1804</v>
       </c>
-      <c r="H330" t="s">
-        <v>19</v>
+      <c r="H330">
+        <v>94</v>
       </c>
       <c r="I330" t="s">
         <v>1805</v>
@@ -20606,14 +20612,14 @@
       <c r="E331" t="s">
         <v>23</v>
       </c>
-      <c r="F331" t="s">
-        <v>19</v>
+      <c r="F331">
+        <v>4.3</v>
       </c>
       <c r="G331" t="s">
         <v>1810</v>
       </c>
-      <c r="H331" t="s">
-        <v>19</v>
+      <c r="H331">
+        <v>1070</v>
       </c>
       <c r="I331" t="s">
         <v>1811</v>
@@ -20647,14 +20653,14 @@
       <c r="E332" t="s">
         <v>1666</v>
       </c>
-      <c r="F332" t="s">
-        <v>19</v>
+      <c r="F332">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G332" t="s">
         <v>1815</v>
       </c>
-      <c r="H332" t="s">
-        <v>19</v>
+      <c r="H332">
+        <v>100</v>
       </c>
       <c r="I332" t="s">
         <v>1816</v>

--- a/data/final_scraped_1200/c$scrape_data3.xlsx
+++ b/data/final_scraped_1200/c$scrape_data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bowiechuang/Documents/GitHub/Skin_Care_Recommendation/data/final_scraped_1200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206EEB58-F2E5-2147-BF57-89024E283966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF6E1A8-5AB0-A742-8BBE-94621CD05FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="2209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="2208">
   <si>
     <t>Brand Name</t>
   </si>
@@ -6227,9 +6227,6 @@
   </si>
   <si>
     <t>8.89 oz / 250 ml</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>https://www.sephora.com/ca/en/product/davines-minu-hair-mask-for-colored-hair-P512689</t>
@@ -6689,7 +6686,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6707,6 +6704,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6748,7 +6752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6758,6 +6762,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7063,8 +7068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H333" sqref="H333"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H420" sqref="H420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20694,14 +20699,14 @@
       <c r="E333" t="s">
         <v>327</v>
       </c>
-      <c r="F333" t="s">
-        <v>19</v>
+      <c r="F333">
+        <v>4.5</v>
       </c>
       <c r="G333" t="s">
         <v>1509</v>
       </c>
-      <c r="H333" t="s">
-        <v>19</v>
+      <c r="H333">
+        <v>190</v>
       </c>
       <c r="I333" t="s">
         <v>1820</v>
@@ -20735,14 +20740,14 @@
       <c r="E334" t="s">
         <v>1824</v>
       </c>
-      <c r="F334" t="s">
-        <v>19</v>
+      <c r="F334">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G334" t="s">
         <v>130</v>
       </c>
-      <c r="H334" t="s">
-        <v>19</v>
+      <c r="H334">
+        <v>196</v>
       </c>
       <c r="I334" t="s">
         <v>1825</v>
@@ -20776,14 +20781,14 @@
       <c r="E335" t="s">
         <v>316</v>
       </c>
-      <c r="F335" t="s">
-        <v>19</v>
+      <c r="F335">
+        <v>4.5</v>
       </c>
       <c r="G335" t="s">
         <v>1831</v>
       </c>
-      <c r="H335" t="s">
-        <v>19</v>
+      <c r="H335">
+        <v>1244</v>
       </c>
       <c r="I335" t="s">
         <v>1832</v>
@@ -20817,14 +20822,14 @@
       <c r="E336" t="s">
         <v>394</v>
       </c>
-      <c r="F336" t="s">
-        <v>19</v>
+      <c r="F336">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G336" t="s">
         <v>1837</v>
       </c>
-      <c r="H336" t="s">
-        <v>19</v>
+      <c r="H336">
+        <v>362</v>
       </c>
       <c r="I336" t="s">
         <v>1838</v>
@@ -20858,14 +20863,14 @@
       <c r="E337" t="s">
         <v>1781</v>
       </c>
-      <c r="F337" t="s">
-        <v>19</v>
+      <c r="F337">
+        <v>4.2</v>
       </c>
       <c r="G337" t="s">
         <v>1782</v>
       </c>
-      <c r="H337" t="s">
-        <v>19</v>
+      <c r="H337">
+        <v>75</v>
       </c>
       <c r="I337" t="s">
         <v>1842</v>
@@ -20899,14 +20904,14 @@
       <c r="E338" t="s">
         <v>218</v>
       </c>
-      <c r="F338" t="s">
-        <v>19</v>
+      <c r="F338">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G338" t="s">
         <v>1846</v>
       </c>
-      <c r="H338" t="s">
-        <v>19</v>
+      <c r="H338">
+        <v>5896</v>
       </c>
       <c r="I338" t="s">
         <v>1521</v>
@@ -20940,14 +20945,14 @@
       <c r="E339" t="s">
         <v>280</v>
       </c>
-      <c r="F339" t="s">
-        <v>19</v>
+      <c r="F339">
+        <v>4.7</v>
       </c>
       <c r="G339" t="s">
         <v>1849</v>
       </c>
-      <c r="H339" t="s">
-        <v>19</v>
+      <c r="H339">
+        <v>13</v>
       </c>
       <c r="I339" t="s">
         <v>1850</v>
@@ -20981,14 +20986,14 @@
       <c r="E340" t="s">
         <v>48</v>
       </c>
-      <c r="F340" t="s">
-        <v>19</v>
+      <c r="F340">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G340" t="s">
         <v>1551</v>
       </c>
-      <c r="H340" t="s">
-        <v>19</v>
+      <c r="H340">
+        <v>152</v>
       </c>
       <c r="I340" t="s">
         <v>1855</v>
@@ -21022,14 +21027,14 @@
       <c r="E341" t="s">
         <v>30</v>
       </c>
-      <c r="F341" t="s">
-        <v>19</v>
+      <c r="F341">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G341" t="s">
         <v>1515</v>
       </c>
-      <c r="H341" t="s">
-        <v>19</v>
+      <c r="H341">
+        <v>1093</v>
       </c>
       <c r="I341" t="s">
         <v>1859</v>
@@ -21063,14 +21068,14 @@
       <c r="E342" t="s">
         <v>122</v>
       </c>
-      <c r="F342" t="s">
-        <v>19</v>
+      <c r="F342">
+        <v>4.3</v>
       </c>
       <c r="G342" t="s">
         <v>109</v>
       </c>
-      <c r="H342" t="s">
-        <v>19</v>
+      <c r="H342">
+        <v>308</v>
       </c>
       <c r="I342" t="s">
         <v>1863</v>
@@ -21104,14 +21109,14 @@
       <c r="E343" t="s">
         <v>1867</v>
       </c>
-      <c r="F343" t="s">
-        <v>19</v>
+      <c r="F343">
+        <v>3.8</v>
       </c>
       <c r="G343" t="s">
         <v>1868</v>
       </c>
-      <c r="H343" t="s">
-        <v>19</v>
+      <c r="H343">
+        <v>214</v>
       </c>
       <c r="I343" t="s">
         <v>1869</v>
@@ -21145,14 +21150,14 @@
       <c r="E344" t="s">
         <v>1583</v>
       </c>
-      <c r="F344" t="s">
-        <v>19</v>
+      <c r="F344">
+        <v>3.4</v>
       </c>
       <c r="G344" t="s">
         <v>1873</v>
       </c>
-      <c r="H344" t="s">
-        <v>19</v>
+      <c r="H344">
+        <v>18</v>
       </c>
       <c r="I344" t="s">
         <v>1874</v>
@@ -21186,14 +21191,14 @@
       <c r="E345" t="s">
         <v>1781</v>
       </c>
-      <c r="F345" t="s">
-        <v>19</v>
+      <c r="F345">
+        <v>4.7</v>
       </c>
       <c r="G345" t="s">
         <v>19</v>
       </c>
-      <c r="H345" t="s">
-        <v>19</v>
+      <c r="H345">
+        <v>64</v>
       </c>
       <c r="I345" t="s">
         <v>1878</v>
@@ -21227,14 +21232,14 @@
       <c r="E346" t="s">
         <v>23</v>
       </c>
-      <c r="F346" t="s">
-        <v>19</v>
+      <c r="F346">
+        <v>4.3</v>
       </c>
       <c r="G346" t="s">
         <v>1882</v>
       </c>
-      <c r="H346" t="s">
-        <v>19</v>
+      <c r="H346">
+        <v>218</v>
       </c>
       <c r="I346" t="s">
         <v>1883</v>
@@ -21268,14 +21273,14 @@
       <c r="E347" t="s">
         <v>23</v>
       </c>
-      <c r="F347" t="s">
-        <v>19</v>
+      <c r="F347">
+        <v>4.5</v>
       </c>
       <c r="G347" t="s">
         <v>1887</v>
       </c>
-      <c r="H347" t="s">
-        <v>19</v>
+      <c r="H347">
+        <v>135</v>
       </c>
       <c r="I347" t="s">
         <v>1888</v>
@@ -21309,14 +21314,14 @@
       <c r="E348" t="s">
         <v>108</v>
       </c>
-      <c r="F348" t="s">
-        <v>19</v>
+      <c r="F348">
+        <v>4.8</v>
       </c>
       <c r="G348" t="s">
         <v>1892</v>
       </c>
-      <c r="H348" t="s">
-        <v>19</v>
+      <c r="H348">
+        <v>265</v>
       </c>
       <c r="I348" t="s">
         <v>1893</v>
@@ -21350,14 +21355,14 @@
       <c r="E349" t="s">
         <v>665</v>
       </c>
-      <c r="F349" t="s">
-        <v>19</v>
+      <c r="F349">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G349" t="s">
         <v>94</v>
       </c>
-      <c r="H349" t="s">
-        <v>19</v>
+      <c r="H349">
+        <v>116</v>
       </c>
       <c r="I349" t="s">
         <v>1898</v>
@@ -21391,14 +21396,14 @@
       <c r="E350" t="s">
         <v>40</v>
       </c>
-      <c r="F350" t="s">
-        <v>19</v>
+      <c r="F350">
+        <v>4.7</v>
       </c>
       <c r="G350" t="s">
         <v>19</v>
       </c>
-      <c r="H350" t="s">
-        <v>19</v>
+      <c r="H350">
+        <v>374</v>
       </c>
       <c r="I350" t="s">
         <v>1901</v>
@@ -21432,14 +21437,14 @@
       <c r="E351" t="s">
         <v>707</v>
       </c>
-      <c r="F351" t="s">
-        <v>19</v>
+      <c r="F351">
+        <v>4.3</v>
       </c>
       <c r="G351" t="s">
         <v>1906</v>
       </c>
-      <c r="H351" t="s">
-        <v>19</v>
+      <c r="H351">
+        <v>171</v>
       </c>
       <c r="I351" t="s">
         <v>1907</v>
@@ -21473,14 +21478,14 @@
       <c r="E352" t="s">
         <v>149</v>
       </c>
-      <c r="F352" t="s">
-        <v>19</v>
+      <c r="F352">
+        <v>4.7</v>
       </c>
       <c r="G352" t="s">
         <v>1912</v>
       </c>
-      <c r="H352" t="s">
-        <v>19</v>
+      <c r="H352">
+        <v>832</v>
       </c>
       <c r="I352" t="s">
         <v>1913</v>
@@ -21514,14 +21519,14 @@
       <c r="E353" t="s">
         <v>48</v>
       </c>
-      <c r="F353" t="s">
-        <v>19</v>
+      <c r="F353">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G353" t="s">
         <v>1551</v>
       </c>
-      <c r="H353" t="s">
-        <v>19</v>
+      <c r="H353">
+        <v>20</v>
       </c>
       <c r="I353" t="s">
         <v>1917</v>
@@ -21555,14 +21560,14 @@
       <c r="E354" t="s">
         <v>87</v>
       </c>
-      <c r="F354" t="s">
-        <v>19</v>
+      <c r="F354">
+        <v>4.5</v>
       </c>
       <c r="G354" t="s">
         <v>1672</v>
       </c>
-      <c r="H354" t="s">
-        <v>19</v>
+      <c r="H354">
+        <v>395</v>
       </c>
       <c r="I354" t="s">
         <v>1921</v>
@@ -21596,14 +21601,14 @@
       <c r="E355" t="s">
         <v>23</v>
       </c>
-      <c r="F355" t="s">
-        <v>19</v>
+      <c r="F355">
+        <v>4</v>
       </c>
       <c r="G355" t="s">
         <v>1925</v>
       </c>
-      <c r="H355" t="s">
-        <v>19</v>
+      <c r="H355">
+        <v>164</v>
       </c>
       <c r="I355" t="s">
         <v>1926</v>
@@ -21637,14 +21642,14 @@
       <c r="E356" t="s">
         <v>1781</v>
       </c>
-      <c r="F356" t="s">
-        <v>19</v>
+      <c r="F356">
+        <v>4.5</v>
       </c>
       <c r="G356" t="s">
         <v>1930</v>
       </c>
-      <c r="H356" t="s">
-        <v>19</v>
+      <c r="H356">
+        <v>171</v>
       </c>
       <c r="I356" t="s">
         <v>1931</v>
@@ -21678,14 +21683,14 @@
       <c r="E357" t="s">
         <v>23</v>
       </c>
-      <c r="F357" t="s">
-        <v>19</v>
+      <c r="F357">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G357" t="s">
         <v>1925</v>
       </c>
-      <c r="H357" t="s">
-        <v>19</v>
+      <c r="H357">
+        <v>379</v>
       </c>
       <c r="I357" t="s">
         <v>1935</v>
@@ -21719,14 +21724,14 @@
       <c r="E358" t="s">
         <v>108</v>
       </c>
-      <c r="F358" t="s">
-        <v>19</v>
+      <c r="F358">
+        <v>3.8</v>
       </c>
       <c r="G358" t="s">
         <v>695</v>
       </c>
-      <c r="H358" t="s">
-        <v>19</v>
+      <c r="H358">
+        <v>5</v>
       </c>
       <c r="I358" t="s">
         <v>1939</v>
@@ -21760,14 +21765,14 @@
       <c r="E359" t="s">
         <v>935</v>
       </c>
-      <c r="F359" t="s">
-        <v>19</v>
+      <c r="F359">
+        <v>4.3</v>
       </c>
       <c r="G359" t="s">
         <v>1943</v>
       </c>
-      <c r="H359" t="s">
-        <v>19</v>
+      <c r="H359">
+        <v>717</v>
       </c>
       <c r="I359" t="s">
         <v>1944</v>
@@ -21801,14 +21806,14 @@
       <c r="E360" t="s">
         <v>243</v>
       </c>
-      <c r="F360" t="s">
-        <v>19</v>
+      <c r="F360">
+        <v>4.8</v>
       </c>
       <c r="G360" t="s">
         <v>491</v>
       </c>
-      <c r="H360" t="s">
-        <v>19</v>
+      <c r="H360">
+        <v>216</v>
       </c>
       <c r="I360" t="s">
         <v>1948</v>
@@ -21842,14 +21847,14 @@
       <c r="E361" t="s">
         <v>163</v>
       </c>
-      <c r="F361" t="s">
-        <v>19</v>
+      <c r="F361">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G361" t="s">
         <v>261</v>
       </c>
-      <c r="H361" t="s">
-        <v>19</v>
+      <c r="H361">
+        <v>10</v>
       </c>
       <c r="I361" t="s">
         <v>1952</v>
@@ -21883,14 +21888,14 @@
       <c r="E362" t="s">
         <v>65</v>
       </c>
-      <c r="F362" t="s">
-        <v>19</v>
+      <c r="F362">
+        <v>4.2</v>
       </c>
       <c r="G362" t="s">
         <v>1956</v>
       </c>
-      <c r="H362" t="s">
-        <v>19</v>
+      <c r="H362">
+        <v>4090</v>
       </c>
       <c r="I362" t="s">
         <v>1957</v>
@@ -21924,14 +21929,14 @@
       <c r="E363" t="s">
         <v>87</v>
       </c>
-      <c r="F363" t="s">
-        <v>19</v>
+      <c r="F363">
+        <v>3.7</v>
       </c>
       <c r="G363" t="s">
         <v>1961</v>
       </c>
-      <c r="H363" t="s">
-        <v>19</v>
+      <c r="H363">
+        <v>54</v>
       </c>
       <c r="I363" t="s">
         <v>1962</v>
@@ -21965,14 +21970,14 @@
       <c r="E364" t="s">
         <v>906</v>
       </c>
-      <c r="F364" t="s">
-        <v>19</v>
+      <c r="F364">
+        <v>4</v>
       </c>
       <c r="G364" t="s">
         <v>73</v>
       </c>
-      <c r="H364" t="s">
-        <v>19</v>
+      <c r="H364">
+        <v>20</v>
       </c>
       <c r="I364" t="s">
         <v>1966</v>
@@ -22006,14 +22011,14 @@
       <c r="E365" t="s">
         <v>1971</v>
       </c>
-      <c r="F365" t="s">
-        <v>19</v>
+      <c r="F365">
+        <v>2.2000000000000002</v>
       </c>
       <c r="G365" t="s">
         <v>19</v>
       </c>
-      <c r="H365" t="s">
-        <v>19</v>
+      <c r="H365">
+        <v>33</v>
       </c>
       <c r="I365" t="s">
         <v>1972</v>
@@ -22047,14 +22052,14 @@
       <c r="E366" t="s">
         <v>1556</v>
       </c>
-      <c r="F366" t="s">
-        <v>19</v>
+      <c r="F366">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G366" t="s">
         <v>1976</v>
       </c>
-      <c r="H366" t="s">
-        <v>19</v>
+      <c r="H366">
+        <v>419</v>
       </c>
       <c r="I366" t="s">
         <v>1977</v>
@@ -22088,14 +22093,14 @@
       <c r="E367" t="s">
         <v>260</v>
       </c>
-      <c r="F367" t="s">
-        <v>19</v>
+      <c r="F367">
+        <v>4.7</v>
       </c>
       <c r="G367" t="s">
         <v>1981</v>
       </c>
-      <c r="H367" t="s">
-        <v>19</v>
+      <c r="H367">
+        <v>265</v>
       </c>
       <c r="I367" t="s">
         <v>1982</v>
@@ -22129,14 +22134,14 @@
       <c r="E368" t="s">
         <v>484</v>
       </c>
-      <c r="F368" t="s">
-        <v>19</v>
+      <c r="F368">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G368" t="s">
         <v>1192</v>
       </c>
-      <c r="H368" t="s">
-        <v>19</v>
+      <c r="H368">
+        <v>551</v>
       </c>
       <c r="I368" t="s">
         <v>1986</v>
@@ -22170,14 +22175,14 @@
       <c r="E369" t="s">
         <v>906</v>
       </c>
-      <c r="F369" t="s">
-        <v>19</v>
+      <c r="F369">
+        <v>4.8</v>
       </c>
       <c r="G369" t="s">
         <v>1504</v>
       </c>
-      <c r="H369" t="s">
-        <v>19</v>
+      <c r="H369">
+        <v>154</v>
       </c>
       <c r="I369" t="s">
         <v>1990</v>
@@ -22211,14 +22216,14 @@
       <c r="E370" t="s">
         <v>149</v>
       </c>
-      <c r="F370" t="s">
-        <v>19</v>
+      <c r="F370">
+        <v>4.3</v>
       </c>
       <c r="G370" t="s">
         <v>1994</v>
       </c>
-      <c r="H370" t="s">
-        <v>19</v>
+      <c r="H370">
+        <v>2955</v>
       </c>
       <c r="I370" t="s">
         <v>1686</v>
@@ -22252,14 +22257,14 @@
       <c r="E371" t="s">
         <v>316</v>
       </c>
-      <c r="F371" t="s">
-        <v>19</v>
+      <c r="F371">
+        <v>4.7</v>
       </c>
       <c r="G371" t="s">
         <v>1998</v>
       </c>
-      <c r="H371" t="s">
-        <v>19</v>
+      <c r="H371">
+        <v>273</v>
       </c>
       <c r="I371" t="s">
         <v>1999</v>
@@ -22293,14 +22298,14 @@
       <c r="E372" t="s">
         <v>484</v>
       </c>
-      <c r="F372" t="s">
-        <v>19</v>
+      <c r="F372">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G372" t="s">
         <v>237</v>
       </c>
-      <c r="H372" t="s">
-        <v>19</v>
+      <c r="H372">
+        <v>522</v>
       </c>
       <c r="I372" t="s">
         <v>2003</v>
@@ -22334,14 +22339,14 @@
       <c r="E373" t="s">
         <v>2008</v>
       </c>
-      <c r="F373" t="s">
-        <v>19</v>
+      <c r="F373">
+        <v>3.7</v>
       </c>
       <c r="G373" t="s">
         <v>1804</v>
       </c>
-      <c r="H373" t="s">
-        <v>19</v>
+      <c r="H373">
+        <v>196</v>
       </c>
       <c r="I373" t="s">
         <v>2009</v>
@@ -22375,14 +22380,14 @@
       <c r="E374" t="s">
         <v>40</v>
       </c>
-      <c r="F374" t="s">
-        <v>19</v>
+      <c r="F374">
+        <v>5</v>
       </c>
       <c r="G374" t="s">
         <v>518</v>
       </c>
-      <c r="H374" t="s">
-        <v>19</v>
+      <c r="H374">
+        <v>2</v>
       </c>
       <c r="I374" t="s">
         <v>2013</v>
@@ -22416,14 +22421,14 @@
       <c r="E375" t="s">
         <v>163</v>
       </c>
-      <c r="F375" t="s">
-        <v>19</v>
+      <c r="F375">
+        <v>4.5</v>
       </c>
       <c r="G375" t="s">
         <v>1956</v>
       </c>
-      <c r="H375" t="s">
-        <v>19</v>
+      <c r="H375">
+        <v>876</v>
       </c>
       <c r="I375" t="s">
         <v>2018</v>
@@ -22457,14 +22462,14 @@
       <c r="E376" t="s">
         <v>48</v>
       </c>
-      <c r="F376" t="s">
-        <v>19</v>
+      <c r="F376">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G376" t="s">
         <v>94</v>
       </c>
-      <c r="H376" t="s">
-        <v>19</v>
+      <c r="H376">
+        <v>1045</v>
       </c>
       <c r="I376" t="s">
         <v>2022</v>
@@ -22498,14 +22503,14 @@
       <c r="E377" t="s">
         <v>163</v>
       </c>
-      <c r="F377" t="s">
-        <v>19</v>
+      <c r="F377">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G377" t="s">
         <v>862</v>
       </c>
-      <c r="H377" t="s">
-        <v>19</v>
+      <c r="H377">
+        <v>909</v>
       </c>
       <c r="I377" t="s">
         <v>2027</v>
@@ -22539,14 +22544,14 @@
       <c r="E378" t="s">
         <v>1556</v>
       </c>
-      <c r="F378" t="s">
-        <v>19</v>
+      <c r="F378">
+        <v>4</v>
       </c>
       <c r="G378" t="s">
         <v>19</v>
       </c>
-      <c r="H378" t="s">
-        <v>19</v>
+      <c r="H378">
+        <v>29</v>
       </c>
       <c r="I378" t="s">
         <v>2031</v>
@@ -22580,14 +22585,14 @@
       <c r="E379" t="s">
         <v>72</v>
       </c>
-      <c r="F379" t="s">
-        <v>19</v>
+      <c r="F379">
+        <v>4.2</v>
       </c>
       <c r="G379" t="s">
         <v>317</v>
       </c>
-      <c r="H379" t="s">
-        <v>19</v>
+      <c r="H379">
+        <v>4785</v>
       </c>
       <c r="I379" t="s">
         <v>2035</v>
@@ -22621,14 +22626,14 @@
       <c r="E380" t="s">
         <v>505</v>
       </c>
-      <c r="F380" t="s">
-        <v>19</v>
+      <c r="F380">
+        <v>4.3</v>
       </c>
       <c r="G380" t="s">
         <v>2039</v>
       </c>
-      <c r="H380" t="s">
-        <v>19</v>
+      <c r="H380">
+        <v>371</v>
       </c>
       <c r="I380" t="s">
         <v>2040</v>
@@ -22662,14 +22667,14 @@
       <c r="E381" t="s">
         <v>65</v>
       </c>
-      <c r="F381" t="s">
-        <v>19</v>
+      <c r="F381">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G381" t="s">
         <v>1525</v>
       </c>
-      <c r="H381" t="s">
-        <v>19</v>
+      <c r="H381">
+        <v>834</v>
       </c>
       <c r="I381" t="s">
         <v>2044</v>
@@ -22703,14 +22708,14 @@
       <c r="E382" t="s">
         <v>394</v>
       </c>
-      <c r="F382" t="s">
-        <v>19</v>
+      <c r="F382">
+        <v>4.9000000000000004</v>
       </c>
       <c r="G382" t="s">
         <v>1753</v>
       </c>
-      <c r="H382" t="s">
-        <v>19</v>
+      <c r="H382">
+        <v>114</v>
       </c>
       <c r="I382" t="s">
         <v>2049</v>
@@ -22744,14 +22749,14 @@
       <c r="E383" t="s">
         <v>122</v>
       </c>
-      <c r="F383" t="s">
-        <v>19</v>
+      <c r="F383">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G383" t="s">
         <v>2053</v>
       </c>
-      <c r="H383" t="s">
-        <v>19</v>
+      <c r="H383">
+        <v>308</v>
       </c>
       <c r="I383" t="s">
         <v>2054</v>
@@ -22785,17 +22790,17 @@
       <c r="E384" t="s">
         <v>829</v>
       </c>
-      <c r="F384" t="s">
-        <v>19</v>
+      <c r="F384">
+        <v>4</v>
       </c>
       <c r="G384" t="s">
         <v>2058</v>
       </c>
-      <c r="H384" t="s">
-        <v>19</v>
-      </c>
-      <c r="I384" t="s">
-        <v>2059</v>
+      <c r="H384">
+        <v>1</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>1585</v>
       </c>
       <c r="J384" t="s">
         <v>1586</v>
@@ -22807,7 +22812,7 @@
         <v>19</v>
       </c>
       <c r="M384" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
@@ -22818,7 +22823,7 @@
         <v>359</v>
       </c>
       <c r="C385" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D385" t="s">
         <v>1503</v>
@@ -22826,20 +22831,20 @@
       <c r="E385" t="s">
         <v>770</v>
       </c>
-      <c r="F385" t="s">
-        <v>19</v>
+      <c r="F385">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G385" t="s">
         <v>1525</v>
       </c>
-      <c r="H385" t="s">
-        <v>19</v>
+      <c r="H385">
+        <v>11</v>
       </c>
       <c r="I385" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J385" t="s">
         <v>2062</v>
-      </c>
-      <c r="J385" t="s">
-        <v>2063</v>
       </c>
       <c r="K385" t="s">
         <v>26</v>
@@ -22848,7 +22853,7 @@
         <v>1039</v>
       </c>
       <c r="M385" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
@@ -22859,7 +22864,7 @@
         <v>78</v>
       </c>
       <c r="C386" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D386" t="s">
         <v>1503</v>
@@ -22867,20 +22872,20 @@
       <c r="E386" t="s">
         <v>1556</v>
       </c>
-      <c r="F386" t="s">
-        <v>19</v>
+      <c r="F386">
+        <v>4.3</v>
       </c>
       <c r="G386" t="s">
         <v>1557</v>
       </c>
-      <c r="H386" t="s">
-        <v>19</v>
+      <c r="H386">
+        <v>763</v>
       </c>
       <c r="I386" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J386" t="s">
         <v>2066</v>
-      </c>
-      <c r="J386" t="s">
-        <v>2067</v>
       </c>
       <c r="K386" t="s">
         <v>26</v>
@@ -22889,7 +22894,7 @@
         <v>698</v>
       </c>
       <c r="M386" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.2">
@@ -22897,10 +22902,10 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C387" t="s">
         <v>2069</v>
-      </c>
-      <c r="C387" t="s">
-        <v>2070</v>
       </c>
       <c r="D387" t="s">
         <v>1503</v>
@@ -22908,29 +22913,29 @@
       <c r="E387" t="s">
         <v>65</v>
       </c>
-      <c r="F387" t="s">
-        <v>19</v>
+      <c r="F387">
+        <v>4.5</v>
       </c>
       <c r="G387" t="s">
         <v>207</v>
       </c>
-      <c r="H387" t="s">
-        <v>19</v>
+      <c r="H387">
+        <v>139</v>
       </c>
       <c r="I387" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J387" t="s">
         <v>2071</v>
       </c>
-      <c r="J387" t="s">
+      <c r="K387" t="s">
+        <v>19</v>
+      </c>
+      <c r="L387" t="s">
+        <v>19</v>
+      </c>
+      <c r="M387" t="s">
         <v>2072</v>
-      </c>
-      <c r="K387" t="s">
-        <v>19</v>
-      </c>
-      <c r="L387" t="s">
-        <v>19</v>
-      </c>
-      <c r="M387" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
@@ -22941,7 +22946,7 @@
         <v>1829</v>
       </c>
       <c r="C388" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D388" t="s">
         <v>1503</v>
@@ -22949,29 +22954,29 @@
       <c r="E388" t="s">
         <v>394</v>
       </c>
-      <c r="F388" t="s">
-        <v>19</v>
+      <c r="F388">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G388" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H388">
+        <v>957</v>
+      </c>
+      <c r="I388" t="s">
         <v>2075</v>
       </c>
-      <c r="H388" t="s">
-        <v>19</v>
-      </c>
-      <c r="I388" t="s">
+      <c r="J388" t="s">
         <v>2076</v>
       </c>
-      <c r="J388" t="s">
+      <c r="K388" t="s">
+        <v>19</v>
+      </c>
+      <c r="L388" t="s">
+        <v>19</v>
+      </c>
+      <c r="M388" t="s">
         <v>2077</v>
-      </c>
-      <c r="K388" t="s">
-        <v>19</v>
-      </c>
-      <c r="L388" t="s">
-        <v>19</v>
-      </c>
-      <c r="M388" t="s">
-        <v>2078</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
@@ -22982,7 +22987,7 @@
         <v>120</v>
       </c>
       <c r="C389" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D389" t="s">
         <v>1503</v>
@@ -22990,14 +22995,14 @@
       <c r="E389" t="s">
         <v>829</v>
       </c>
-      <c r="F389" t="s">
-        <v>19</v>
+      <c r="F389">
+        <v>4.8</v>
       </c>
       <c r="G389" t="s">
         <v>2058</v>
       </c>
-      <c r="H389" t="s">
-        <v>19</v>
+      <c r="H389">
+        <v>35</v>
       </c>
       <c r="I389" t="s">
         <v>1874</v>
@@ -23012,7 +23017,7 @@
         <v>19</v>
       </c>
       <c r="M389" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
@@ -23023,7 +23028,7 @@
         <v>205</v>
       </c>
       <c r="C390" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D390" t="s">
         <v>1503</v>
@@ -23031,29 +23036,29 @@
       <c r="E390" t="s">
         <v>846</v>
       </c>
-      <c r="F390" t="s">
-        <v>19</v>
+      <c r="F390">
+        <v>4.7</v>
       </c>
       <c r="G390" t="s">
         <v>1509</v>
       </c>
-      <c r="H390" t="s">
-        <v>19</v>
+      <c r="H390">
+        <v>382</v>
       </c>
       <c r="I390" t="s">
+        <v>2081</v>
+      </c>
+      <c r="J390" t="s">
         <v>2082</v>
       </c>
-      <c r="J390" t="s">
+      <c r="K390" t="s">
+        <v>19</v>
+      </c>
+      <c r="L390" t="s">
+        <v>19</v>
+      </c>
+      <c r="M390" t="s">
         <v>2083</v>
-      </c>
-      <c r="K390" t="s">
-        <v>19</v>
-      </c>
-      <c r="L390" t="s">
-        <v>19</v>
-      </c>
-      <c r="M390" t="s">
-        <v>2084</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
@@ -23064,7 +23069,7 @@
         <v>241</v>
       </c>
       <c r="C391" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D391" t="s">
         <v>1503</v>
@@ -23072,29 +23077,29 @@
       <c r="E391" t="s">
         <v>1781</v>
       </c>
-      <c r="F391" t="s">
-        <v>19</v>
+      <c r="F391">
+        <v>4.5</v>
       </c>
       <c r="G391" t="s">
         <v>1782</v>
       </c>
-      <c r="H391" t="s">
-        <v>19</v>
+      <c r="H391">
+        <v>209</v>
       </c>
       <c r="I391" t="s">
+        <v>2085</v>
+      </c>
+      <c r="J391" t="s">
         <v>2086</v>
       </c>
-      <c r="J391" t="s">
+      <c r="K391" t="s">
+        <v>19</v>
+      </c>
+      <c r="L391" t="s">
+        <v>19</v>
+      </c>
+      <c r="M391" t="s">
         <v>2087</v>
-      </c>
-      <c r="K391" t="s">
-        <v>19</v>
-      </c>
-      <c r="L391" t="s">
-        <v>19</v>
-      </c>
-      <c r="M391" t="s">
-        <v>2088</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
@@ -23105,7 +23110,7 @@
         <v>654</v>
       </c>
       <c r="C392" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D392" t="s">
         <v>1503</v>
@@ -23113,29 +23118,29 @@
       <c r="E392" t="s">
         <v>1867</v>
       </c>
-      <c r="F392" t="s">
-        <v>19</v>
+      <c r="F392">
+        <v>4.3</v>
       </c>
       <c r="G392" t="s">
         <v>94</v>
       </c>
-      <c r="H392" t="s">
-        <v>19</v>
+      <c r="H392">
+        <v>196</v>
       </c>
       <c r="I392" t="s">
+        <v>2089</v>
+      </c>
+      <c r="J392" t="s">
         <v>2090</v>
       </c>
-      <c r="J392" t="s">
+      <c r="K392" t="s">
+        <v>19</v>
+      </c>
+      <c r="L392" t="s">
+        <v>19</v>
+      </c>
+      <c r="M392" t="s">
         <v>2091</v>
-      </c>
-      <c r="K392" t="s">
-        <v>19</v>
-      </c>
-      <c r="L392" t="s">
-        <v>19</v>
-      </c>
-      <c r="M392" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
@@ -23146,7 +23151,7 @@
         <v>1126</v>
       </c>
       <c r="C393" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D393" t="s">
         <v>1503</v>
@@ -23154,20 +23159,20 @@
       <c r="E393" t="s">
         <v>87</v>
       </c>
-      <c r="F393" t="s">
-        <v>19</v>
+      <c r="F393">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G393" t="s">
         <v>19</v>
       </c>
-      <c r="H393" t="s">
-        <v>19</v>
+      <c r="H393">
+        <v>7</v>
       </c>
       <c r="I393" t="s">
+        <v>2093</v>
+      </c>
+      <c r="J393" t="s">
         <v>2094</v>
-      </c>
-      <c r="J393" t="s">
-        <v>2095</v>
       </c>
       <c r="K393" t="s">
         <v>26</v>
@@ -23176,7 +23181,7 @@
         <v>283</v>
       </c>
       <c r="M393" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
@@ -23187,7 +23192,7 @@
         <v>258</v>
       </c>
       <c r="C394" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D394" t="s">
         <v>1503</v>
@@ -23195,14 +23200,14 @@
       <c r="E394" t="s">
         <v>218</v>
       </c>
-      <c r="F394" t="s">
-        <v>19</v>
+      <c r="F394">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G394" t="s">
         <v>130</v>
       </c>
-      <c r="H394" t="s">
-        <v>19</v>
+      <c r="H394">
+        <v>551</v>
       </c>
       <c r="I394" t="s">
         <v>1986</v>
@@ -23217,7 +23222,7 @@
         <v>19</v>
       </c>
       <c r="M394" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
@@ -23228,7 +23233,7 @@
         <v>510</v>
       </c>
       <c r="C395" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D395" t="s">
         <v>1503</v>
@@ -23236,29 +23241,29 @@
       <c r="E395" t="s">
         <v>48</v>
       </c>
-      <c r="F395" t="s">
-        <v>19</v>
+      <c r="F395">
+        <v>4.3</v>
       </c>
       <c r="G395" t="s">
         <v>1551</v>
       </c>
-      <c r="H395" t="s">
-        <v>19</v>
+      <c r="H395">
+        <v>151</v>
       </c>
       <c r="I395" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J395" t="s">
         <v>2100</v>
       </c>
-      <c r="J395" t="s">
+      <c r="K395" t="s">
+        <v>19</v>
+      </c>
+      <c r="L395" t="s">
+        <v>19</v>
+      </c>
+      <c r="M395" t="s">
         <v>2101</v>
-      </c>
-      <c r="K395" t="s">
-        <v>19</v>
-      </c>
-      <c r="L395" t="s">
-        <v>19</v>
-      </c>
-      <c r="M395" t="s">
-        <v>2102</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
@@ -23269,7 +23274,7 @@
         <v>285</v>
       </c>
       <c r="C396" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D396" t="s">
         <v>1503</v>
@@ -23277,20 +23282,20 @@
       <c r="E396" t="s">
         <v>637</v>
       </c>
-      <c r="F396" t="s">
-        <v>19</v>
+      <c r="F396">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G396" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H396">
+        <v>660</v>
+      </c>
+      <c r="I396" t="s">
         <v>2104</v>
       </c>
-      <c r="H396" t="s">
-        <v>19</v>
-      </c>
-      <c r="I396" t="s">
+      <c r="J396" t="s">
         <v>2105</v>
-      </c>
-      <c r="J396" t="s">
-        <v>2106</v>
       </c>
       <c r="K396" t="s">
         <v>19</v>
@@ -23299,7 +23304,7 @@
         <v>384</v>
       </c>
       <c r="M396" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
@@ -23310,7 +23315,7 @@
         <v>21</v>
       </c>
       <c r="C397" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D397" t="s">
         <v>1503</v>
@@ -23318,29 +23323,29 @@
       <c r="E397" t="s">
         <v>1541</v>
       </c>
-      <c r="F397" t="s">
-        <v>19</v>
+      <c r="F397">
+        <v>4.5</v>
       </c>
       <c r="G397" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H397">
+        <v>541</v>
+      </c>
+      <c r="I397" t="s">
         <v>2109</v>
       </c>
-      <c r="H397" t="s">
-        <v>19</v>
-      </c>
-      <c r="I397" t="s">
+      <c r="J397" t="s">
         <v>2110</v>
-      </c>
-      <c r="J397" t="s">
-        <v>2111</v>
       </c>
       <c r="K397" t="s">
         <v>26</v>
       </c>
       <c r="L397" t="s">
+        <v>2111</v>
+      </c>
+      <c r="M397" t="s">
         <v>2112</v>
-      </c>
-      <c r="M397" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
@@ -23351,7 +23356,7 @@
         <v>510</v>
       </c>
       <c r="C398" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D398" t="s">
         <v>1503</v>
@@ -23359,29 +23364,29 @@
       <c r="E398" t="s">
         <v>93</v>
       </c>
-      <c r="F398" t="s">
-        <v>19</v>
+      <c r="F398">
+        <v>4.7</v>
       </c>
       <c r="G398" t="s">
+        <v>2114</v>
+      </c>
+      <c r="H398">
+        <v>140</v>
+      </c>
+      <c r="I398" t="s">
         <v>2115</v>
       </c>
-      <c r="H398" t="s">
-        <v>19</v>
-      </c>
-      <c r="I398" t="s">
+      <c r="J398" t="s">
         <v>2116</v>
       </c>
-      <c r="J398" t="s">
+      <c r="K398" t="s">
+        <v>19</v>
+      </c>
+      <c r="L398" t="s">
+        <v>19</v>
+      </c>
+      <c r="M398" t="s">
         <v>2117</v>
-      </c>
-      <c r="K398" t="s">
-        <v>19</v>
-      </c>
-      <c r="L398" t="s">
-        <v>19</v>
-      </c>
-      <c r="M398" t="s">
-        <v>2118</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
@@ -23392,7 +23397,7 @@
         <v>510</v>
       </c>
       <c r="C399" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D399" t="s">
         <v>1503</v>
@@ -23400,29 +23405,29 @@
       <c r="E399" t="s">
         <v>48</v>
       </c>
-      <c r="F399" t="s">
-        <v>19</v>
+      <c r="F399">
+        <v>3.9</v>
       </c>
       <c r="G399" t="s">
         <v>1551</v>
       </c>
-      <c r="H399" t="s">
-        <v>19</v>
+      <c r="H399">
+        <v>54</v>
       </c>
       <c r="I399" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J399" t="s">
         <v>2120</v>
       </c>
-      <c r="J399" t="s">
+      <c r="K399" t="s">
+        <v>19</v>
+      </c>
+      <c r="L399" t="s">
+        <v>19</v>
+      </c>
+      <c r="M399" t="s">
         <v>2121</v>
-      </c>
-      <c r="K399" t="s">
-        <v>19</v>
-      </c>
-      <c r="L399" t="s">
-        <v>19</v>
-      </c>
-      <c r="M399" t="s">
-        <v>2122</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
@@ -23433,7 +23438,7 @@
         <v>1501</v>
       </c>
       <c r="C400" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D400" t="s">
         <v>1503</v>
@@ -23441,29 +23446,29 @@
       <c r="E400" t="s">
         <v>846</v>
       </c>
-      <c r="F400" t="s">
-        <v>19</v>
+      <c r="F400">
+        <v>1</v>
       </c>
       <c r="G400" t="s">
         <v>19</v>
       </c>
-      <c r="H400" t="s">
-        <v>19</v>
+      <c r="H400">
+        <v>1</v>
       </c>
       <c r="I400" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J400" t="s">
         <v>2124</v>
       </c>
-      <c r="J400" t="s">
+      <c r="K400" t="s">
+        <v>19</v>
+      </c>
+      <c r="L400" t="s">
+        <v>19</v>
+      </c>
+      <c r="M400" t="s">
         <v>2125</v>
-      </c>
-      <c r="K400" t="s">
-        <v>19</v>
-      </c>
-      <c r="L400" t="s">
-        <v>19</v>
-      </c>
-      <c r="M400" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
@@ -23474,7 +23479,7 @@
         <v>510</v>
       </c>
       <c r="C401" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D401" t="s">
         <v>1503</v>
@@ -23482,29 +23487,29 @@
       <c r="E401" t="s">
         <v>48</v>
       </c>
-      <c r="F401" t="s">
-        <v>19</v>
+      <c r="F401">
+        <v>4</v>
       </c>
       <c r="G401" t="s">
         <v>1551</v>
       </c>
-      <c r="H401" t="s">
-        <v>19</v>
+      <c r="H401">
+        <v>26</v>
       </c>
       <c r="I401" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J401" t="s">
         <v>2128</v>
       </c>
-      <c r="J401" t="s">
+      <c r="K401" t="s">
+        <v>19</v>
+      </c>
+      <c r="L401" t="s">
+        <v>19</v>
+      </c>
+      <c r="M401" t="s">
         <v>2129</v>
-      </c>
-      <c r="K401" t="s">
-        <v>19</v>
-      </c>
-      <c r="L401" t="s">
-        <v>19</v>
-      </c>
-      <c r="M401" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
@@ -23515,7 +23520,7 @@
         <v>285</v>
       </c>
       <c r="C402" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D402" t="s">
         <v>1503</v>
@@ -23523,20 +23528,20 @@
       <c r="E402" t="s">
         <v>512</v>
       </c>
-      <c r="F402" t="s">
-        <v>19</v>
+      <c r="F402">
+        <v>4.3</v>
       </c>
       <c r="G402" t="s">
-        <v>2075</v>
-      </c>
-      <c r="H402" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H402">
         <v>19</v>
       </c>
       <c r="I402" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J402" t="s">
         <v>2132</v>
-      </c>
-      <c r="J402" t="s">
-        <v>2133</v>
       </c>
       <c r="K402" t="s">
         <v>26</v>
@@ -23545,7 +23550,7 @@
         <v>1411</v>
       </c>
       <c r="M402" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
@@ -23556,7 +23561,7 @@
         <v>1513</v>
       </c>
       <c r="C403" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D403" t="s">
         <v>1503</v>
@@ -23564,29 +23569,29 @@
       <c r="E403" t="s">
         <v>1443</v>
       </c>
-      <c r="F403" t="s">
-        <v>19</v>
+      <c r="F403">
+        <v>4.7</v>
       </c>
       <c r="G403" t="s">
         <v>19</v>
       </c>
-      <c r="H403" t="s">
-        <v>19</v>
+      <c r="H403">
+        <v>45</v>
       </c>
       <c r="I403" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J403" t="s">
         <v>2136</v>
       </c>
-      <c r="J403" t="s">
+      <c r="K403" t="s">
+        <v>19</v>
+      </c>
+      <c r="L403" t="s">
+        <v>19</v>
+      </c>
+      <c r="M403" t="s">
         <v>2137</v>
-      </c>
-      <c r="K403" t="s">
-        <v>19</v>
-      </c>
-      <c r="L403" t="s">
-        <v>19</v>
-      </c>
-      <c r="M403" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
@@ -23597,7 +23602,7 @@
         <v>442</v>
       </c>
       <c r="C404" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D404" t="s">
         <v>1503</v>
@@ -23605,20 +23610,20 @@
       <c r="E404" t="s">
         <v>316</v>
       </c>
-      <c r="F404" t="s">
-        <v>19</v>
+      <c r="F404">
+        <v>4.5</v>
       </c>
       <c r="G404" t="s">
         <v>1571</v>
       </c>
-      <c r="H404" t="s">
-        <v>19</v>
+      <c r="H404">
+        <v>1889</v>
       </c>
       <c r="I404" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J404" t="s">
         <v>2140</v>
-      </c>
-      <c r="J404" t="s">
-        <v>2141</v>
       </c>
       <c r="K404" t="s">
         <v>807</v>
@@ -23627,7 +23632,7 @@
         <v>1039</v>
       </c>
       <c r="M404" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
@@ -23638,7 +23643,7 @@
         <v>1501</v>
       </c>
       <c r="C405" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D405" t="s">
         <v>1503</v>
@@ -23646,29 +23651,29 @@
       <c r="E405" t="s">
         <v>906</v>
       </c>
-      <c r="F405" t="s">
-        <v>19</v>
+      <c r="F405">
+        <v>4.7</v>
       </c>
       <c r="G405" t="s">
         <v>1504</v>
       </c>
-      <c r="H405" t="s">
-        <v>19</v>
+      <c r="H405">
+        <v>311</v>
       </c>
       <c r="I405" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J405" t="s">
         <v>2144</v>
       </c>
-      <c r="J405" t="s">
+      <c r="K405" t="s">
+        <v>19</v>
+      </c>
+      <c r="L405" t="s">
+        <v>19</v>
+      </c>
+      <c r="M405" t="s">
         <v>2145</v>
-      </c>
-      <c r="K405" t="s">
-        <v>19</v>
-      </c>
-      <c r="L405" t="s">
-        <v>19</v>
-      </c>
-      <c r="M405" t="s">
-        <v>2146</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
@@ -23679,7 +23684,7 @@
         <v>654</v>
       </c>
       <c r="C406" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D406" t="s">
         <v>1503</v>
@@ -23687,29 +23692,29 @@
       <c r="E406" t="s">
         <v>1867</v>
       </c>
-      <c r="F406" t="s">
-        <v>19</v>
+      <c r="F406">
+        <v>3.5</v>
       </c>
       <c r="G406" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H406">
+        <v>1133</v>
+      </c>
+      <c r="I406" t="s">
         <v>2148</v>
       </c>
-      <c r="H406" t="s">
-        <v>19</v>
-      </c>
-      <c r="I406" t="s">
+      <c r="J406" t="s">
         <v>2149</v>
       </c>
-      <c r="J406" t="s">
+      <c r="K406" t="s">
+        <v>19</v>
+      </c>
+      <c r="L406" t="s">
+        <v>19</v>
+      </c>
+      <c r="M406" t="s">
         <v>2150</v>
-      </c>
-      <c r="K406" t="s">
-        <v>19</v>
-      </c>
-      <c r="L406" t="s">
-        <v>19</v>
-      </c>
-      <c r="M406" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
@@ -23720,7 +23725,7 @@
         <v>787</v>
       </c>
       <c r="C407" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D407" t="s">
         <v>1503</v>
@@ -23728,29 +23733,29 @@
       <c r="E407" t="s">
         <v>23</v>
       </c>
-      <c r="F407" t="s">
-        <v>19</v>
+      <c r="F407">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G407" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H407">
+        <v>294</v>
+      </c>
+      <c r="I407" t="s">
         <v>2153</v>
       </c>
-      <c r="H407" t="s">
-        <v>19</v>
-      </c>
-      <c r="I407" t="s">
+      <c r="J407" t="s">
         <v>2154</v>
-      </c>
-      <c r="J407" t="s">
-        <v>2155</v>
       </c>
       <c r="K407" t="s">
         <v>26</v>
       </c>
       <c r="L407" t="s">
+        <v>2155</v>
+      </c>
+      <c r="M407" t="s">
         <v>2156</v>
-      </c>
-      <c r="M407" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
@@ -23761,7 +23766,7 @@
         <v>423</v>
       </c>
       <c r="C408" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D408" t="s">
         <v>1503</v>
@@ -23769,17 +23774,17 @@
       <c r="E408" t="s">
         <v>122</v>
       </c>
-      <c r="F408" t="s">
-        <v>19</v>
+      <c r="F408">
+        <v>4.3</v>
       </c>
       <c r="G408" t="s">
         <v>19</v>
       </c>
-      <c r="H408" t="s">
-        <v>19</v>
+      <c r="H408">
+        <v>717</v>
       </c>
       <c r="I408" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="J408" t="s">
         <v>1945</v>
@@ -23791,7 +23796,7 @@
         <v>1909</v>
       </c>
       <c r="M408" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
@@ -23802,7 +23807,7 @@
         <v>629</v>
       </c>
       <c r="C409" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D409" t="s">
         <v>1503</v>
@@ -23810,29 +23815,29 @@
       <c r="E409" t="s">
         <v>87</v>
       </c>
-      <c r="F409" t="s">
-        <v>19</v>
+      <c r="F409">
+        <v>4.8</v>
       </c>
       <c r="G409" t="s">
         <v>1562</v>
       </c>
-      <c r="H409" t="s">
-        <v>19</v>
+      <c r="H409">
+        <v>288</v>
       </c>
       <c r="I409" t="s">
+        <v>2161</v>
+      </c>
+      <c r="J409" t="s">
         <v>2162</v>
       </c>
-      <c r="J409" t="s">
+      <c r="K409" t="s">
+        <v>19</v>
+      </c>
+      <c r="L409" t="s">
+        <v>19</v>
+      </c>
+      <c r="M409" t="s">
         <v>2163</v>
-      </c>
-      <c r="K409" t="s">
-        <v>19</v>
-      </c>
-      <c r="L409" t="s">
-        <v>19</v>
-      </c>
-      <c r="M409" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
@@ -23843,7 +23848,7 @@
         <v>285</v>
       </c>
       <c r="C410" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D410" t="s">
         <v>1503</v>
@@ -23851,29 +23856,29 @@
       <c r="E410" t="s">
         <v>1375</v>
       </c>
-      <c r="F410" t="s">
-        <v>19</v>
+      <c r="F410">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G410" t="s">
         <v>914</v>
       </c>
-      <c r="H410" t="s">
-        <v>19</v>
+      <c r="H410">
+        <v>15</v>
       </c>
       <c r="I410" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J410" t="s">
         <v>2166</v>
-      </c>
-      <c r="J410" t="s">
-        <v>2167</v>
       </c>
       <c r="K410" t="s">
         <v>26</v>
       </c>
       <c r="L410" t="s">
+        <v>2167</v>
+      </c>
+      <c r="M410" t="s">
         <v>2168</v>
-      </c>
-      <c r="M410" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
@@ -23884,28 +23889,28 @@
         <v>436</v>
       </c>
       <c r="C411" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D411" t="s">
         <v>1503</v>
       </c>
       <c r="E411" t="s">
-        <v>2171</v>
-      </c>
-      <c r="F411" t="s">
-        <v>19</v>
+        <v>2170</v>
+      </c>
+      <c r="F411">
+        <v>4.7</v>
       </c>
       <c r="G411" t="s">
         <v>287</v>
       </c>
-      <c r="H411" t="s">
-        <v>19</v>
+      <c r="H411">
+        <v>78</v>
       </c>
       <c r="I411" t="s">
+        <v>2171</v>
+      </c>
+      <c r="J411" t="s">
         <v>2172</v>
-      </c>
-      <c r="J411" t="s">
-        <v>2173</v>
       </c>
       <c r="K411" t="s">
         <v>26</v>
@@ -23914,7 +23919,7 @@
         <v>1683</v>
       </c>
       <c r="M411" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
@@ -23925,7 +23930,7 @@
         <v>977</v>
       </c>
       <c r="C412" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D412" t="s">
         <v>1503</v>
@@ -23933,29 +23938,29 @@
       <c r="E412" t="s">
         <v>906</v>
       </c>
-      <c r="F412" t="s">
-        <v>19</v>
+      <c r="F412">
+        <v>4.3</v>
       </c>
       <c r="G412" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H412">
+        <v>194</v>
+      </c>
+      <c r="I412" t="s">
         <v>2176</v>
       </c>
-      <c r="H412" t="s">
-        <v>19</v>
-      </c>
-      <c r="I412" t="s">
+      <c r="J412" t="s">
         <v>2177</v>
       </c>
-      <c r="J412" t="s">
+      <c r="K412" t="s">
+        <v>19</v>
+      </c>
+      <c r="L412" t="s">
+        <v>19</v>
+      </c>
+      <c r="M412" t="s">
         <v>2178</v>
-      </c>
-      <c r="K412" t="s">
-        <v>19</v>
-      </c>
-      <c r="L412" t="s">
-        <v>19</v>
-      </c>
-      <c r="M412" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
@@ -23966,7 +23971,7 @@
         <v>1041</v>
       </c>
       <c r="C413" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D413" t="s">
         <v>1503</v>
@@ -23974,29 +23979,29 @@
       <c r="E413" t="s">
         <v>108</v>
       </c>
-      <c r="F413" t="s">
-        <v>19</v>
+      <c r="F413">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G413" t="s">
         <v>695</v>
       </c>
-      <c r="H413" t="s">
-        <v>19</v>
+      <c r="H413">
+        <v>243</v>
       </c>
       <c r="I413" t="s">
+        <v>2180</v>
+      </c>
+      <c r="J413" t="s">
         <v>2181</v>
       </c>
-      <c r="J413" t="s">
+      <c r="K413" t="s">
+        <v>19</v>
+      </c>
+      <c r="L413" t="s">
+        <v>19</v>
+      </c>
+      <c r="M413" t="s">
         <v>2182</v>
-      </c>
-      <c r="K413" t="s">
-        <v>19</v>
-      </c>
-      <c r="L413" t="s">
-        <v>19</v>
-      </c>
-      <c r="M413" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
@@ -24007,7 +24012,7 @@
         <v>453</v>
       </c>
       <c r="C414" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D414" t="s">
         <v>1503</v>
@@ -24015,29 +24020,29 @@
       <c r="E414" t="s">
         <v>163</v>
       </c>
-      <c r="F414" t="s">
-        <v>19</v>
+      <c r="F414">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G414" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H414">
+        <v>240</v>
+      </c>
+      <c r="I414" t="s">
         <v>2185</v>
       </c>
-      <c r="H414" t="s">
-        <v>19</v>
-      </c>
-      <c r="I414" t="s">
+      <c r="J414" t="s">
         <v>2186</v>
       </c>
-      <c r="J414" t="s">
+      <c r="K414" t="s">
+        <v>19</v>
+      </c>
+      <c r="L414" t="s">
+        <v>19</v>
+      </c>
+      <c r="M414" t="s">
         <v>2187</v>
-      </c>
-      <c r="K414" t="s">
-        <v>19</v>
-      </c>
-      <c r="L414" t="s">
-        <v>19</v>
-      </c>
-      <c r="M414" t="s">
-        <v>2188</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
@@ -24048,7 +24053,7 @@
         <v>372</v>
       </c>
       <c r="C415" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D415" t="s">
         <v>1503</v>
@@ -24056,17 +24061,17 @@
       <c r="E415" t="s">
         <v>707</v>
       </c>
-      <c r="F415" t="s">
-        <v>19</v>
+      <c r="F415">
+        <v>4.9000000000000004</v>
       </c>
       <c r="G415" t="s">
         <v>995</v>
       </c>
-      <c r="H415" t="s">
-        <v>19</v>
+      <c r="H415">
+        <v>68</v>
       </c>
       <c r="I415" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="J415" t="s">
         <v>997</v>
@@ -24078,7 +24083,7 @@
         <v>691</v>
       </c>
       <c r="M415" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
@@ -24089,7 +24094,7 @@
         <v>1041</v>
       </c>
       <c r="C416" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D416" t="s">
         <v>1503</v>
@@ -24097,29 +24102,29 @@
       <c r="E416" t="s">
         <v>108</v>
       </c>
-      <c r="F416" t="s">
-        <v>19</v>
+      <c r="F416">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G416" t="s">
         <v>109</v>
       </c>
-      <c r="H416" t="s">
-        <v>19</v>
+      <c r="H416">
+        <v>47</v>
       </c>
       <c r="I416" t="s">
+        <v>2192</v>
+      </c>
+      <c r="J416" t="s">
         <v>2193</v>
       </c>
-      <c r="J416" t="s">
+      <c r="K416" t="s">
+        <v>19</v>
+      </c>
+      <c r="L416" t="s">
+        <v>19</v>
+      </c>
+      <c r="M416" t="s">
         <v>2194</v>
-      </c>
-      <c r="K416" t="s">
-        <v>19</v>
-      </c>
-      <c r="L416" t="s">
-        <v>19</v>
-      </c>
-      <c r="M416" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.2">
@@ -24130,7 +24135,7 @@
         <v>120</v>
       </c>
       <c r="C417" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D417" t="s">
         <v>1503</v>
@@ -24138,29 +24143,29 @@
       <c r="E417" t="s">
         <v>1583</v>
       </c>
-      <c r="F417" t="s">
-        <v>19</v>
+      <c r="F417">
+        <v>5</v>
       </c>
       <c r="G417" t="s">
+        <v>2196</v>
+      </c>
+      <c r="H417">
+        <v>5</v>
+      </c>
+      <c r="I417" t="s">
         <v>2197</v>
       </c>
-      <c r="H417" t="s">
-        <v>19</v>
-      </c>
-      <c r="I417" t="s">
+      <c r="J417" t="s">
         <v>2198</v>
       </c>
-      <c r="J417" t="s">
+      <c r="K417" t="s">
+        <v>19</v>
+      </c>
+      <c r="L417" t="s">
+        <v>19</v>
+      </c>
+      <c r="M417" t="s">
         <v>2199</v>
-      </c>
-      <c r="K417" t="s">
-        <v>19</v>
-      </c>
-      <c r="L417" t="s">
-        <v>19</v>
-      </c>
-      <c r="M417" t="s">
-        <v>2200</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
@@ -24171,7 +24176,7 @@
         <v>883</v>
       </c>
       <c r="C418" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D418" t="s">
         <v>1503</v>
@@ -24179,29 +24184,29 @@
       <c r="E418" t="s">
         <v>122</v>
       </c>
-      <c r="F418" t="s">
-        <v>19</v>
+      <c r="F418">
+        <v>4.5</v>
       </c>
       <c r="G418" t="s">
         <v>1753</v>
       </c>
-      <c r="H418" t="s">
-        <v>19</v>
+      <c r="H418">
+        <v>377</v>
       </c>
       <c r="I418" t="s">
+        <v>2201</v>
+      </c>
+      <c r="J418" t="s">
         <v>2202</v>
       </c>
-      <c r="J418" t="s">
+      <c r="K418" t="s">
+        <v>19</v>
+      </c>
+      <c r="L418" t="s">
+        <v>19</v>
+      </c>
+      <c r="M418" t="s">
         <v>2203</v>
-      </c>
-      <c r="K418" t="s">
-        <v>19</v>
-      </c>
-      <c r="L418" t="s">
-        <v>19</v>
-      </c>
-      <c r="M418" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
@@ -24212,7 +24217,7 @@
         <v>78</v>
       </c>
       <c r="C419" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D419" t="s">
         <v>1503</v>
@@ -24220,20 +24225,20 @@
       <c r="E419" t="s">
         <v>280</v>
       </c>
-      <c r="F419" t="s">
-        <v>19</v>
+      <c r="F419">
+        <v>4.2</v>
       </c>
       <c r="G419" t="s">
         <v>1849</v>
       </c>
-      <c r="H419" t="s">
-        <v>19</v>
+      <c r="H419">
+        <v>32</v>
       </c>
       <c r="I419" t="s">
+        <v>2205</v>
+      </c>
+      <c r="J419" t="s">
         <v>2206</v>
-      </c>
-      <c r="J419" t="s">
-        <v>2207</v>
       </c>
       <c r="K419" t="s">
         <v>26</v>
@@ -24242,7 +24247,7 @@
         <v>283</v>
       </c>
       <c r="M419" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
   </sheetData>
